--- a/docs/excel/DateReward.xlsx
+++ b/docs/excel/DateReward.xlsx
@@ -188,7 +188,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -209,9 +209,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -575,10 +572,10 @@
   <dimension ref="A1:G387"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C362" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H384" sqref="H384"/>
+      <selection pane="bottomRight" activeCell="A126" sqref="A126:A379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -650,10 +647,10 @@
       <c r="D4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="15" t="s">
         <v>30</v>
       </c>
     </row>
@@ -967,7 +964,7 @@
       <c r="C20" s="9">
         <v>101</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="10">
         <v>204</v>
       </c>
       <c r="E20">
@@ -987,7 +984,7 @@
       <c r="C21" s="9">
         <v>101</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="10">
         <v>204</v>
       </c>
       <c r="E21">
@@ -1007,7 +1004,7 @@
       <c r="C22" s="9">
         <v>101</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="10">
         <v>204</v>
       </c>
       <c r="E22">
@@ -1027,13 +1024,13 @@
       <c r="C23" s="9">
         <v>101</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="10">
         <v>204</v>
       </c>
       <c r="E23">
         <v>304</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F23" s="13">
         <v>0</v>
       </c>
     </row>
@@ -1047,7 +1044,7 @@
       <c r="C24" s="9">
         <v>101</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="10">
         <v>204</v>
       </c>
       <c r="E24">
@@ -1067,7 +1064,7 @@
       <c r="C25" s="9">
         <v>101</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="10">
         <v>205</v>
       </c>
       <c r="E25">
@@ -1087,7 +1084,7 @@
       <c r="C26" s="9">
         <v>101</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="10">
         <v>205</v>
       </c>
       <c r="E26">
@@ -1107,7 +1104,7 @@
       <c r="C27" s="9">
         <v>101</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="10">
         <v>205</v>
       </c>
       <c r="E27">
@@ -1127,7 +1124,7 @@
       <c r="C28" s="9">
         <v>101</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="10">
         <v>205</v>
       </c>
       <c r="E28">
@@ -1147,7 +1144,7 @@
       <c r="C29" s="9">
         <v>101</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="10">
         <v>205</v>
       </c>
       <c r="E29">
@@ -1164,7 +1161,7 @@
       <c r="B30" s="5">
         <v>1</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C30" s="14">
         <v>102</v>
       </c>
       <c r="D30" s="1">
@@ -1184,7 +1181,7 @@
       <c r="B31" s="5">
         <v>1</v>
       </c>
-      <c r="C31" s="15">
+      <c r="C31" s="14">
         <v>102</v>
       </c>
       <c r="D31" s="1">
@@ -1204,7 +1201,7 @@
       <c r="B32" s="5">
         <v>1</v>
       </c>
-      <c r="C32" s="15">
+      <c r="C32" s="14">
         <v>102</v>
       </c>
       <c r="D32" s="1">
@@ -1224,7 +1221,7 @@
       <c r="B33" s="5">
         <v>1</v>
       </c>
-      <c r="C33" s="15">
+      <c r="C33" s="14">
         <v>102</v>
       </c>
       <c r="D33" s="1">
@@ -1244,7 +1241,7 @@
       <c r="B34" s="5">
         <v>1</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="14">
         <v>102</v>
       </c>
       <c r="D34" s="1">
@@ -1264,7 +1261,7 @@
       <c r="B35" s="5">
         <v>1</v>
       </c>
-      <c r="C35" s="15">
+      <c r="C35" s="14">
         <v>102</v>
       </c>
       <c r="D35" s="1">
@@ -1284,7 +1281,7 @@
       <c r="B36" s="5">
         <v>1</v>
       </c>
-      <c r="C36" s="15">
+      <c r="C36" s="14">
         <v>102</v>
       </c>
       <c r="D36" s="1">
@@ -1304,7 +1301,7 @@
       <c r="B37" s="5">
         <v>1</v>
       </c>
-      <c r="C37" s="15">
+      <c r="C37" s="14">
         <v>102</v>
       </c>
       <c r="D37" s="1">
@@ -1324,7 +1321,7 @@
       <c r="B38" s="5">
         <v>1</v>
       </c>
-      <c r="C38" s="15">
+      <c r="C38" s="14">
         <v>102</v>
       </c>
       <c r="D38" s="1">
@@ -1344,7 +1341,7 @@
       <c r="B39" s="5">
         <v>1</v>
       </c>
-      <c r="C39" s="15">
+      <c r="C39" s="14">
         <v>102</v>
       </c>
       <c r="D39" s="1">
@@ -1364,7 +1361,7 @@
       <c r="B40" s="5">
         <v>1</v>
       </c>
-      <c r="C40" s="15">
+      <c r="C40" s="14">
         <v>102</v>
       </c>
       <c r="D40" s="1">
@@ -1384,7 +1381,7 @@
       <c r="B41" s="5">
         <v>1</v>
       </c>
-      <c r="C41" s="15">
+      <c r="C41" s="14">
         <v>102</v>
       </c>
       <c r="D41" s="1">
@@ -1404,7 +1401,7 @@
       <c r="B42" s="5">
         <v>1</v>
       </c>
-      <c r="C42" s="15">
+      <c r="C42" s="14">
         <v>102</v>
       </c>
       <c r="D42" s="1">
@@ -1413,7 +1410,7 @@
       <c r="E42">
         <v>303</v>
       </c>
-      <c r="F42" s="14">
+      <c r="F42" s="13">
         <v>0</v>
       </c>
     </row>
@@ -1424,7 +1421,7 @@
       <c r="B43" s="5">
         <v>1</v>
       </c>
-      <c r="C43" s="15">
+      <c r="C43" s="14">
         <v>102</v>
       </c>
       <c r="D43" s="1">
@@ -1444,7 +1441,7 @@
       <c r="B44" s="5">
         <v>1</v>
       </c>
-      <c r="C44" s="15">
+      <c r="C44" s="14">
         <v>102</v>
       </c>
       <c r="D44" s="1">
@@ -1464,10 +1461,10 @@
       <c r="B45" s="5">
         <v>1</v>
       </c>
-      <c r="C45" s="15">
+      <c r="C45" s="14">
         <v>102</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D45" s="10">
         <v>204</v>
       </c>
       <c r="E45">
@@ -1484,10 +1481,10 @@
       <c r="B46" s="5">
         <v>1</v>
       </c>
-      <c r="C46" s="15">
+      <c r="C46" s="14">
         <v>102</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D46" s="10">
         <v>204</v>
       </c>
       <c r="E46">
@@ -1504,10 +1501,10 @@
       <c r="B47" s="5">
         <v>1</v>
       </c>
-      <c r="C47" s="15">
+      <c r="C47" s="14">
         <v>102</v>
       </c>
-      <c r="D47" s="11">
+      <c r="D47" s="10">
         <v>204</v>
       </c>
       <c r="E47">
@@ -1524,10 +1521,10 @@
       <c r="B48" s="5">
         <v>1</v>
       </c>
-      <c r="C48" s="15">
+      <c r="C48" s="14">
         <v>102</v>
       </c>
-      <c r="D48" s="11">
+      <c r="D48" s="10">
         <v>204</v>
       </c>
       <c r="E48">
@@ -1544,10 +1541,10 @@
       <c r="B49" s="5">
         <v>1</v>
       </c>
-      <c r="C49" s="15">
+      <c r="C49" s="14">
         <v>102</v>
       </c>
-      <c r="D49" s="11">
+      <c r="D49" s="10">
         <v>204</v>
       </c>
       <c r="E49">
@@ -1564,10 +1561,10 @@
       <c r="B50" s="5">
         <v>1</v>
       </c>
-      <c r="C50" s="15">
+      <c r="C50" s="14">
         <v>102</v>
       </c>
-      <c r="D50" s="11">
+      <c r="D50" s="10">
         <v>205</v>
       </c>
       <c r="E50">
@@ -1584,10 +1581,10 @@
       <c r="B51" s="5">
         <v>1</v>
       </c>
-      <c r="C51" s="15">
+      <c r="C51" s="14">
         <v>102</v>
       </c>
-      <c r="D51" s="11">
+      <c r="D51" s="10">
         <v>205</v>
       </c>
       <c r="E51">
@@ -1604,10 +1601,10 @@
       <c r="B52" s="5">
         <v>1</v>
       </c>
-      <c r="C52" s="15">
+      <c r="C52" s="14">
         <v>102</v>
       </c>
-      <c r="D52" s="11">
+      <c r="D52" s="10">
         <v>205</v>
       </c>
       <c r="E52">
@@ -1624,10 +1621,10 @@
       <c r="B53" s="5">
         <v>1</v>
       </c>
-      <c r="C53" s="15">
+      <c r="C53" s="14">
         <v>102</v>
       </c>
-      <c r="D53" s="11">
+      <c r="D53" s="10">
         <v>205</v>
       </c>
       <c r="E53">
@@ -1644,10 +1641,10 @@
       <c r="B54" s="5">
         <v>1</v>
       </c>
-      <c r="C54" s="15">
+      <c r="C54" s="14">
         <v>102</v>
       </c>
-      <c r="D54" s="11">
+      <c r="D54" s="10">
         <v>205</v>
       </c>
       <c r="E54">
@@ -1664,7 +1661,7 @@
       <c r="B55" s="5">
         <v>1</v>
       </c>
-      <c r="C55" s="15">
+      <c r="C55" s="14">
         <v>103</v>
       </c>
       <c r="D55" s="1">
@@ -1684,7 +1681,7 @@
       <c r="B56" s="5">
         <v>1</v>
       </c>
-      <c r="C56" s="15">
+      <c r="C56" s="14">
         <v>103</v>
       </c>
       <c r="D56" s="1">
@@ -1704,7 +1701,7 @@
       <c r="B57" s="5">
         <v>1</v>
       </c>
-      <c r="C57" s="15">
+      <c r="C57" s="14">
         <v>103</v>
       </c>
       <c r="D57" s="1">
@@ -1724,7 +1721,7 @@
       <c r="B58" s="5">
         <v>1</v>
       </c>
-      <c r="C58" s="15">
+      <c r="C58" s="14">
         <v>103</v>
       </c>
       <c r="D58" s="1">
@@ -1744,7 +1741,7 @@
       <c r="B59" s="5">
         <v>1</v>
       </c>
-      <c r="C59" s="15">
+      <c r="C59" s="14">
         <v>103</v>
       </c>
       <c r="D59" s="1">
@@ -1764,7 +1761,7 @@
       <c r="B60" s="5">
         <v>1</v>
       </c>
-      <c r="C60" s="15">
+      <c r="C60" s="14">
         <v>103</v>
       </c>
       <c r="D60" s="1">
@@ -1784,7 +1781,7 @@
       <c r="B61" s="5">
         <v>1</v>
       </c>
-      <c r="C61" s="15">
+      <c r="C61" s="14">
         <v>103</v>
       </c>
       <c r="D61" s="1">
@@ -1793,7 +1790,7 @@
       <c r="E61">
         <v>302</v>
       </c>
-      <c r="F61" s="14">
+      <c r="F61" s="13">
         <v>0</v>
       </c>
     </row>
@@ -1804,7 +1801,7 @@
       <c r="B62" s="5">
         <v>1</v>
       </c>
-      <c r="C62" s="15">
+      <c r="C62" s="14">
         <v>103</v>
       </c>
       <c r="D62" s="1">
@@ -1824,7 +1821,7 @@
       <c r="B63" s="5">
         <v>1</v>
       </c>
-      <c r="C63" s="15">
+      <c r="C63" s="14">
         <v>103</v>
       </c>
       <c r="D63" s="1">
@@ -1844,7 +1841,7 @@
       <c r="B64" s="5">
         <v>1</v>
       </c>
-      <c r="C64" s="15">
+      <c r="C64" s="14">
         <v>103</v>
       </c>
       <c r="D64" s="1">
@@ -1864,7 +1861,7 @@
       <c r="B65" s="5">
         <v>1</v>
       </c>
-      <c r="C65" s="15">
+      <c r="C65" s="14">
         <v>103</v>
       </c>
       <c r="D65" s="1">
@@ -1884,7 +1881,7 @@
       <c r="B66" s="5">
         <v>1</v>
       </c>
-      <c r="C66" s="15">
+      <c r="C66" s="14">
         <v>103</v>
       </c>
       <c r="D66" s="1">
@@ -1904,7 +1901,7 @@
       <c r="B67" s="5">
         <v>1</v>
       </c>
-      <c r="C67" s="15">
+      <c r="C67" s="14">
         <v>103</v>
       </c>
       <c r="D67" s="1">
@@ -1924,7 +1921,7 @@
       <c r="B68" s="5">
         <v>1</v>
       </c>
-      <c r="C68" s="15">
+      <c r="C68" s="14">
         <v>103</v>
       </c>
       <c r="D68" s="1">
@@ -1944,7 +1941,7 @@
       <c r="B69" s="5">
         <v>1</v>
       </c>
-      <c r="C69" s="15">
+      <c r="C69" s="14">
         <v>103</v>
       </c>
       <c r="D69" s="1">
@@ -1964,10 +1961,10 @@
       <c r="B70" s="5">
         <v>1</v>
       </c>
-      <c r="C70" s="15">
+      <c r="C70" s="14">
         <v>103</v>
       </c>
-      <c r="D70" s="11">
+      <c r="D70" s="10">
         <v>204</v>
       </c>
       <c r="E70">
@@ -1984,10 +1981,10 @@
       <c r="B71" s="5">
         <v>1</v>
       </c>
-      <c r="C71" s="15">
+      <c r="C71" s="14">
         <v>103</v>
       </c>
-      <c r="D71" s="11">
+      <c r="D71" s="10">
         <v>204</v>
       </c>
       <c r="E71">
@@ -2004,10 +2001,10 @@
       <c r="B72" s="5">
         <v>1</v>
       </c>
-      <c r="C72" s="15">
+      <c r="C72" s="14">
         <v>103</v>
       </c>
-      <c r="D72" s="11">
+      <c r="D72" s="10">
         <v>204</v>
       </c>
       <c r="E72">
@@ -2024,10 +2021,10 @@
       <c r="B73" s="5">
         <v>1</v>
       </c>
-      <c r="C73" s="15">
+      <c r="C73" s="14">
         <v>103</v>
       </c>
-      <c r="D73" s="11">
+      <c r="D73" s="10">
         <v>204</v>
       </c>
       <c r="E73">
@@ -2044,10 +2041,10 @@
       <c r="B74" s="5">
         <v>1</v>
       </c>
-      <c r="C74" s="15">
+      <c r="C74" s="14">
         <v>103</v>
       </c>
-      <c r="D74" s="11">
+      <c r="D74" s="10">
         <v>204</v>
       </c>
       <c r="E74">
@@ -2064,10 +2061,10 @@
       <c r="B75" s="5">
         <v>1</v>
       </c>
-      <c r="C75" s="15">
+      <c r="C75" s="14">
         <v>103</v>
       </c>
-      <c r="D75" s="11">
+      <c r="D75" s="10">
         <v>205</v>
       </c>
       <c r="E75">
@@ -2084,10 +2081,10 @@
       <c r="B76" s="5">
         <v>1</v>
       </c>
-      <c r="C76" s="15">
+      <c r="C76" s="14">
         <v>103</v>
       </c>
-      <c r="D76" s="11">
+      <c r="D76" s="10">
         <v>205</v>
       </c>
       <c r="E76">
@@ -2104,10 +2101,10 @@
       <c r="B77" s="5">
         <v>1</v>
       </c>
-      <c r="C77" s="15">
+      <c r="C77" s="14">
         <v>103</v>
       </c>
-      <c r="D77" s="11">
+      <c r="D77" s="10">
         <v>205</v>
       </c>
       <c r="E77">
@@ -2124,10 +2121,10 @@
       <c r="B78" s="5">
         <v>1</v>
       </c>
-      <c r="C78" s="15">
+      <c r="C78" s="14">
         <v>103</v>
       </c>
-      <c r="D78" s="11">
+      <c r="D78" s="10">
         <v>205</v>
       </c>
       <c r="E78">
@@ -2144,10 +2141,10 @@
       <c r="B79" s="5">
         <v>1</v>
       </c>
-      <c r="C79" s="15">
+      <c r="C79" s="14">
         <v>103</v>
       </c>
-      <c r="D79" s="11">
+      <c r="D79" s="10">
         <v>205</v>
       </c>
       <c r="E79">
@@ -2164,7 +2161,7 @@
       <c r="B80" s="5">
         <v>1</v>
       </c>
-      <c r="C80" s="15">
+      <c r="C80" s="14">
         <v>104</v>
       </c>
       <c r="D80" s="1">
@@ -2173,7 +2170,7 @@
       <c r="E80">
         <v>301</v>
       </c>
-      <c r="F80" s="14">
+      <c r="F80" s="13">
         <v>0</v>
       </c>
     </row>
@@ -2184,7 +2181,7 @@
       <c r="B81" s="5">
         <v>1</v>
       </c>
-      <c r="C81" s="15">
+      <c r="C81" s="14">
         <v>104</v>
       </c>
       <c r="D81" s="1">
@@ -2204,7 +2201,7 @@
       <c r="B82" s="5">
         <v>1</v>
       </c>
-      <c r="C82" s="15">
+      <c r="C82" s="14">
         <v>104</v>
       </c>
       <c r="D82" s="1">
@@ -2224,7 +2221,7 @@
       <c r="B83" s="5">
         <v>1</v>
       </c>
-      <c r="C83" s="15">
+      <c r="C83" s="14">
         <v>104</v>
       </c>
       <c r="D83" s="1">
@@ -2244,7 +2241,7 @@
       <c r="B84" s="5">
         <v>1</v>
       </c>
-      <c r="C84" s="15">
+      <c r="C84" s="14">
         <v>104</v>
       </c>
       <c r="D84" s="1">
@@ -2264,7 +2261,7 @@
       <c r="B85" s="5">
         <v>1</v>
       </c>
-      <c r="C85" s="15">
+      <c r="C85" s="14">
         <v>104</v>
       </c>
       <c r="D85" s="1">
@@ -2284,7 +2281,7 @@
       <c r="B86" s="5">
         <v>1</v>
       </c>
-      <c r="C86" s="15">
+      <c r="C86" s="14">
         <v>104</v>
       </c>
       <c r="D86" s="1">
@@ -2304,7 +2301,7 @@
       <c r="B87" s="5">
         <v>1</v>
       </c>
-      <c r="C87" s="15">
+      <c r="C87" s="14">
         <v>104</v>
       </c>
       <c r="D87" s="1">
@@ -2324,7 +2321,7 @@
       <c r="B88" s="5">
         <v>1</v>
       </c>
-      <c r="C88" s="15">
+      <c r="C88" s="14">
         <v>104</v>
       </c>
       <c r="D88" s="1">
@@ -2344,7 +2341,7 @@
       <c r="B89" s="5">
         <v>1</v>
       </c>
-      <c r="C89" s="15">
+      <c r="C89" s="14">
         <v>104</v>
       </c>
       <c r="D89" s="1">
@@ -2364,7 +2361,7 @@
       <c r="B90" s="5">
         <v>1</v>
       </c>
-      <c r="C90" s="15">
+      <c r="C90" s="14">
         <v>104</v>
       </c>
       <c r="D90" s="1">
@@ -2384,7 +2381,7 @@
       <c r="B91" s="5">
         <v>1</v>
       </c>
-      <c r="C91" s="15">
+      <c r="C91" s="14">
         <v>104</v>
       </c>
       <c r="D91" s="1">
@@ -2404,7 +2401,7 @@
       <c r="B92" s="5">
         <v>1</v>
       </c>
-      <c r="C92" s="15">
+      <c r="C92" s="14">
         <v>104</v>
       </c>
       <c r="D92" s="1">
@@ -2424,7 +2421,7 @@
       <c r="B93" s="5">
         <v>1</v>
       </c>
-      <c r="C93" s="15">
+      <c r="C93" s="14">
         <v>104</v>
       </c>
       <c r="D93" s="1">
@@ -2444,7 +2441,7 @@
       <c r="B94" s="5">
         <v>1</v>
       </c>
-      <c r="C94" s="15">
+      <c r="C94" s="14">
         <v>104</v>
       </c>
       <c r="D94" s="1">
@@ -2464,10 +2461,10 @@
       <c r="B95" s="5">
         <v>1</v>
       </c>
-      <c r="C95" s="15">
+      <c r="C95" s="14">
         <v>104</v>
       </c>
-      <c r="D95" s="11">
+      <c r="D95" s="10">
         <v>204</v>
       </c>
       <c r="E95">
@@ -2484,10 +2481,10 @@
       <c r="B96" s="5">
         <v>1</v>
       </c>
-      <c r="C96" s="15">
+      <c r="C96" s="14">
         <v>104</v>
       </c>
-      <c r="D96" s="11">
+      <c r="D96" s="10">
         <v>204</v>
       </c>
       <c r="E96">
@@ -2504,10 +2501,10 @@
       <c r="B97" s="5">
         <v>1</v>
       </c>
-      <c r="C97" s="15">
+      <c r="C97" s="14">
         <v>104</v>
       </c>
-      <c r="D97" s="11">
+      <c r="D97" s="10">
         <v>204</v>
       </c>
       <c r="E97">
@@ -2524,10 +2521,10 @@
       <c r="B98" s="5">
         <v>1</v>
       </c>
-      <c r="C98" s="15">
+      <c r="C98" s="14">
         <v>104</v>
       </c>
-      <c r="D98" s="11">
+      <c r="D98" s="10">
         <v>204</v>
       </c>
       <c r="E98">
@@ -2544,16 +2541,16 @@
       <c r="B99" s="5">
         <v>1</v>
       </c>
-      <c r="C99" s="15">
+      <c r="C99" s="14">
         <v>104</v>
       </c>
-      <c r="D99" s="11">
+      <c r="D99" s="10">
         <v>204</v>
       </c>
       <c r="E99">
         <v>305</v>
       </c>
-      <c r="F99" s="14">
+      <c r="F99" s="13">
         <v>0</v>
       </c>
     </row>
@@ -2564,10 +2561,10 @@
       <c r="B100" s="5">
         <v>1</v>
       </c>
-      <c r="C100" s="15">
+      <c r="C100" s="14">
         <v>104</v>
       </c>
-      <c r="D100" s="11">
+      <c r="D100" s="10">
         <v>205</v>
       </c>
       <c r="E100">
@@ -2584,10 +2581,10 @@
       <c r="B101" s="5">
         <v>1</v>
       </c>
-      <c r="C101" s="15">
+      <c r="C101" s="14">
         <v>104</v>
       </c>
-      <c r="D101" s="11">
+      <c r="D101" s="10">
         <v>205</v>
       </c>
       <c r="E101">
@@ -2604,10 +2601,10 @@
       <c r="B102" s="5">
         <v>1</v>
       </c>
-      <c r="C102" s="15">
+      <c r="C102" s="14">
         <v>104</v>
       </c>
-      <c r="D102" s="11">
+      <c r="D102" s="10">
         <v>205</v>
       </c>
       <c r="E102">
@@ -2624,10 +2621,10 @@
       <c r="B103" s="5">
         <v>1</v>
       </c>
-      <c r="C103" s="15">
+      <c r="C103" s="14">
         <v>104</v>
       </c>
-      <c r="D103" s="11">
+      <c r="D103" s="10">
         <v>205</v>
       </c>
       <c r="E103">
@@ -2644,10 +2641,10 @@
       <c r="B104" s="5">
         <v>1</v>
       </c>
-      <c r="C104" s="15">
+      <c r="C104" s="14">
         <v>104</v>
       </c>
-      <c r="D104" s="11">
+      <c r="D104" s="10">
         <v>205</v>
       </c>
       <c r="E104">
@@ -2664,7 +2661,7 @@
       <c r="B105" s="5">
         <v>1</v>
       </c>
-      <c r="C105" s="15">
+      <c r="C105" s="14">
         <v>105</v>
       </c>
       <c r="D105" s="1">
@@ -2684,7 +2681,7 @@
       <c r="B106" s="5">
         <v>1</v>
       </c>
-      <c r="C106" s="15">
+      <c r="C106" s="14">
         <v>105</v>
       </c>
       <c r="D106" s="1">
@@ -2704,7 +2701,7 @@
       <c r="B107" s="5">
         <v>1</v>
       </c>
-      <c r="C107" s="15">
+      <c r="C107" s="14">
         <v>105</v>
       </c>
       <c r="D107" s="1">
@@ -2724,7 +2721,7 @@
       <c r="B108" s="5">
         <v>1</v>
       </c>
-      <c r="C108" s="15">
+      <c r="C108" s="14">
         <v>105</v>
       </c>
       <c r="D108" s="1">
@@ -2744,7 +2741,7 @@
       <c r="B109" s="5">
         <v>1</v>
       </c>
-      <c r="C109" s="15">
+      <c r="C109" s="14">
         <v>105</v>
       </c>
       <c r="D109" s="1">
@@ -2764,7 +2761,7 @@
       <c r="B110" s="5">
         <v>1</v>
       </c>
-      <c r="C110" s="15">
+      <c r="C110" s="14">
         <v>105</v>
       </c>
       <c r="D110" s="1">
@@ -2784,7 +2781,7 @@
       <c r="B111" s="5">
         <v>1</v>
       </c>
-      <c r="C111" s="15">
+      <c r="C111" s="14">
         <v>105</v>
       </c>
       <c r="D111" s="1">
@@ -2804,7 +2801,7 @@
       <c r="B112" s="5">
         <v>1</v>
       </c>
-      <c r="C112" s="15">
+      <c r="C112" s="14">
         <v>105</v>
       </c>
       <c r="D112" s="1">
@@ -2824,7 +2821,7 @@
       <c r="B113" s="5">
         <v>1</v>
       </c>
-      <c r="C113" s="15">
+      <c r="C113" s="14">
         <v>105</v>
       </c>
       <c r="D113" s="1">
@@ -2844,7 +2841,7 @@
       <c r="B114" s="5">
         <v>1</v>
       </c>
-      <c r="C114" s="15">
+      <c r="C114" s="14">
         <v>105</v>
       </c>
       <c r="D114" s="1">
@@ -2864,7 +2861,7 @@
       <c r="B115" s="5">
         <v>1</v>
       </c>
-      <c r="C115" s="15">
+      <c r="C115" s="14">
         <v>105</v>
       </c>
       <c r="D115" s="1">
@@ -2884,7 +2881,7 @@
       <c r="B116" s="5">
         <v>1</v>
       </c>
-      <c r="C116" s="15">
+      <c r="C116" s="14">
         <v>105</v>
       </c>
       <c r="D116" s="1">
@@ -2904,7 +2901,7 @@
       <c r="B117" s="5">
         <v>1</v>
       </c>
-      <c r="C117" s="15">
+      <c r="C117" s="14">
         <v>105</v>
       </c>
       <c r="D117" s="1">
@@ -2924,7 +2921,7 @@
       <c r="B118" s="5">
         <v>1</v>
       </c>
-      <c r="C118" s="15">
+      <c r="C118" s="14">
         <v>105</v>
       </c>
       <c r="D118" s="1">
@@ -2933,7 +2930,7 @@
       <c r="E118">
         <v>304</v>
       </c>
-      <c r="F118" s="14">
+      <c r="F118" s="13">
         <v>0</v>
       </c>
     </row>
@@ -2944,7 +2941,7 @@
       <c r="B119" s="5">
         <v>1</v>
       </c>
-      <c r="C119" s="15">
+      <c r="C119" s="14">
         <v>105</v>
       </c>
       <c r="D119" s="1">
@@ -2964,10 +2961,10 @@
       <c r="B120" s="5">
         <v>1</v>
       </c>
-      <c r="C120" s="15">
+      <c r="C120" s="14">
         <v>105</v>
       </c>
-      <c r="D120" s="11">
+      <c r="D120" s="10">
         <v>204</v>
       </c>
       <c r="E120">
@@ -2984,10 +2981,10 @@
       <c r="B121" s="5">
         <v>1</v>
       </c>
-      <c r="C121" s="15">
+      <c r="C121" s="14">
         <v>105</v>
       </c>
-      <c r="D121" s="11">
+      <c r="D121" s="10">
         <v>204</v>
       </c>
       <c r="E121">
@@ -3004,10 +3001,10 @@
       <c r="B122" s="5">
         <v>1</v>
       </c>
-      <c r="C122" s="15">
+      <c r="C122" s="14">
         <v>105</v>
       </c>
-      <c r="D122" s="11">
+      <c r="D122" s="10">
         <v>204</v>
       </c>
       <c r="E122">
@@ -3024,10 +3021,10 @@
       <c r="B123" s="5">
         <v>1</v>
       </c>
-      <c r="C123" s="15">
+      <c r="C123" s="14">
         <v>105</v>
       </c>
-      <c r="D123" s="11">
+      <c r="D123" s="10">
         <v>204</v>
       </c>
       <c r="E123">
@@ -3044,10 +3041,10 @@
       <c r="B124" s="5">
         <v>1</v>
       </c>
-      <c r="C124" s="15">
+      <c r="C124" s="14">
         <v>105</v>
       </c>
-      <c r="D124" s="11">
+      <c r="D124" s="10">
         <v>204</v>
       </c>
       <c r="E124">
@@ -3064,10 +3061,10 @@
       <c r="B125" s="5">
         <v>1</v>
       </c>
-      <c r="C125" s="15">
+      <c r="C125" s="14">
         <v>105</v>
       </c>
-      <c r="D125" s="11">
+      <c r="D125" s="10">
         <v>205</v>
       </c>
       <c r="E125">
@@ -3084,10 +3081,10 @@
       <c r="B126" s="5">
         <v>1</v>
       </c>
-      <c r="C126" s="15">
+      <c r="C126" s="14">
         <v>105</v>
       </c>
-      <c r="D126" s="11">
+      <c r="D126" s="10">
         <v>205</v>
       </c>
       <c r="E126">
@@ -3104,10 +3101,10 @@
       <c r="B127" s="5">
         <v>1</v>
       </c>
-      <c r="C127" s="15">
+      <c r="C127" s="14">
         <v>105</v>
       </c>
-      <c r="D127" s="11">
+      <c r="D127" s="10">
         <v>205</v>
       </c>
       <c r="E127">
@@ -3124,10 +3121,10 @@
       <c r="B128" s="5">
         <v>1</v>
       </c>
-      <c r="C128" s="15">
+      <c r="C128" s="14">
         <v>105</v>
       </c>
-      <c r="D128" s="11">
+      <c r="D128" s="10">
         <v>205</v>
       </c>
       <c r="E128">
@@ -3144,10 +3141,10 @@
       <c r="B129" s="5">
         <v>1</v>
       </c>
-      <c r="C129" s="15">
+      <c r="C129" s="14">
         <v>105</v>
       </c>
-      <c r="D129" s="11">
+      <c r="D129" s="10">
         <v>205</v>
       </c>
       <c r="E129">
@@ -3158,8 +3155,10 @@
       </c>
     </row>
     <row r="130" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="15"/>
-      <c r="B130" s="12">
+      <c r="A130" s="9">
+        <v>126</v>
+      </c>
+      <c r="B130" s="11">
         <v>2</v>
       </c>
       <c r="C130" s="9">
@@ -3176,8 +3175,10 @@
       </c>
     </row>
     <row r="131" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="15"/>
-      <c r="B131" s="12">
+      <c r="A131" s="9">
+        <v>127</v>
+      </c>
+      <c r="B131" s="11">
         <v>2</v>
       </c>
       <c r="C131" s="9">
@@ -3194,8 +3195,10 @@
       </c>
     </row>
     <row r="132" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="15"/>
-      <c r="B132" s="12">
+      <c r="A132" s="9">
+        <v>128</v>
+      </c>
+      <c r="B132" s="11">
         <v>2</v>
       </c>
       <c r="C132" s="9">
@@ -3212,8 +3215,10 @@
       </c>
     </row>
     <row r="133" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="15"/>
-      <c r="B133" s="12">
+      <c r="A133" s="9">
+        <v>129</v>
+      </c>
+      <c r="B133" s="11">
         <v>2</v>
       </c>
       <c r="C133" s="9">
@@ -3230,8 +3235,10 @@
       </c>
     </row>
     <row r="134" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="15"/>
-      <c r="B134" s="12">
+      <c r="A134" s="9">
+        <v>130</v>
+      </c>
+      <c r="B134" s="11">
         <v>2</v>
       </c>
       <c r="C134" s="9">
@@ -3248,8 +3255,10 @@
       </c>
     </row>
     <row r="135" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="15"/>
-      <c r="B135" s="12">
+      <c r="A135" s="9">
+        <v>131</v>
+      </c>
+      <c r="B135" s="11">
         <v>2</v>
       </c>
       <c r="C135" s="9">
@@ -3266,8 +3275,10 @@
       </c>
     </row>
     <row r="136" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="15"/>
-      <c r="B136" s="12">
+      <c r="A136" s="9">
+        <v>132</v>
+      </c>
+      <c r="B136" s="11">
         <v>2</v>
       </c>
       <c r="C136" s="9">
@@ -3284,8 +3295,10 @@
       </c>
     </row>
     <row r="137" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="15"/>
-      <c r="B137" s="12">
+      <c r="A137" s="9">
+        <v>133</v>
+      </c>
+      <c r="B137" s="11">
         <v>2</v>
       </c>
       <c r="C137" s="9">
@@ -3297,13 +3310,15 @@
       <c r="E137">
         <v>303</v>
       </c>
-      <c r="F137" s="14">
+      <c r="F137" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="15"/>
-      <c r="B138" s="12">
+      <c r="A138" s="9">
+        <v>134</v>
+      </c>
+      <c r="B138" s="11">
         <v>2</v>
       </c>
       <c r="C138" s="9">
@@ -3320,8 +3335,10 @@
       </c>
     </row>
     <row r="139" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="15"/>
-      <c r="B139" s="12">
+      <c r="A139" s="9">
+        <v>135</v>
+      </c>
+      <c r="B139" s="11">
         <v>2</v>
       </c>
       <c r="C139" s="9">
@@ -3338,8 +3355,10 @@
       </c>
     </row>
     <row r="140" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="15"/>
-      <c r="B140" s="12">
+      <c r="A140" s="9">
+        <v>136</v>
+      </c>
+      <c r="B140" s="11">
         <v>2</v>
       </c>
       <c r="C140" s="9">
@@ -3356,8 +3375,10 @@
       </c>
     </row>
     <row r="141" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="15"/>
-      <c r="B141" s="12">
+      <c r="A141" s="9">
+        <v>137</v>
+      </c>
+      <c r="B141" s="11">
         <v>2</v>
       </c>
       <c r="C141" s="9">
@@ -3374,8 +3395,10 @@
       </c>
     </row>
     <row r="142" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="15"/>
-      <c r="B142" s="12">
+      <c r="A142" s="9">
+        <v>138</v>
+      </c>
+      <c r="B142" s="11">
         <v>2</v>
       </c>
       <c r="C142" s="9">
@@ -3392,8 +3415,10 @@
       </c>
     </row>
     <row r="143" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A143" s="15"/>
-      <c r="B143" s="12">
+      <c r="A143" s="9">
+        <v>139</v>
+      </c>
+      <c r="B143" s="11">
         <v>2</v>
       </c>
       <c r="C143" s="9">
@@ -3410,8 +3435,10 @@
       </c>
     </row>
     <row r="144" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A144" s="15"/>
-      <c r="B144" s="12">
+      <c r="A144" s="9">
+        <v>140</v>
+      </c>
+      <c r="B144" s="11">
         <v>2</v>
       </c>
       <c r="C144" s="9">
@@ -3428,14 +3455,16 @@
       </c>
     </row>
     <row r="145" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A145" s="15"/>
-      <c r="B145" s="12">
+      <c r="A145" s="9">
+        <v>141</v>
+      </c>
+      <c r="B145" s="11">
         <v>2</v>
       </c>
       <c r="C145" s="9">
         <v>101</v>
       </c>
-      <c r="D145" s="11">
+      <c r="D145" s="10">
         <v>204</v>
       </c>
       <c r="E145">
@@ -3446,14 +3475,16 @@
       </c>
     </row>
     <row r="146" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A146" s="15"/>
-      <c r="B146" s="12">
+      <c r="A146" s="9">
+        <v>142</v>
+      </c>
+      <c r="B146" s="11">
         <v>2</v>
       </c>
       <c r="C146" s="9">
         <v>101</v>
       </c>
-      <c r="D146" s="11">
+      <c r="D146" s="10">
         <v>204</v>
       </c>
       <c r="E146">
@@ -3464,14 +3495,16 @@
       </c>
     </row>
     <row r="147" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A147" s="15"/>
-      <c r="B147" s="12">
+      <c r="A147" s="9">
+        <v>143</v>
+      </c>
+      <c r="B147" s="11">
         <v>2</v>
       </c>
       <c r="C147" s="9">
         <v>101</v>
       </c>
-      <c r="D147" s="11">
+      <c r="D147" s="10">
         <v>204</v>
       </c>
       <c r="E147">
@@ -3482,14 +3515,16 @@
       </c>
     </row>
     <row r="148" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A148" s="15"/>
-      <c r="B148" s="12">
+      <c r="A148" s="9">
+        <v>144</v>
+      </c>
+      <c r="B148" s="11">
         <v>2</v>
       </c>
       <c r="C148" s="9">
         <v>101</v>
       </c>
-      <c r="D148" s="11">
+      <c r="D148" s="10">
         <v>204</v>
       </c>
       <c r="E148">
@@ -3500,14 +3535,16 @@
       </c>
     </row>
     <row r="149" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A149" s="15"/>
-      <c r="B149" s="12">
+      <c r="A149" s="9">
+        <v>145</v>
+      </c>
+      <c r="B149" s="11">
         <v>2</v>
       </c>
       <c r="C149" s="9">
         <v>101</v>
       </c>
-      <c r="D149" s="11">
+      <c r="D149" s="10">
         <v>204</v>
       </c>
       <c r="E149">
@@ -3518,14 +3555,16 @@
       </c>
     </row>
     <row r="150" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A150" s="15"/>
-      <c r="B150" s="12">
+      <c r="A150" s="9">
+        <v>146</v>
+      </c>
+      <c r="B150" s="11">
         <v>2</v>
       </c>
       <c r="C150" s="9">
         <v>101</v>
       </c>
-      <c r="D150" s="11">
+      <c r="D150" s="10">
         <v>205</v>
       </c>
       <c r="E150">
@@ -3536,14 +3575,16 @@
       </c>
     </row>
     <row r="151" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A151" s="15"/>
-      <c r="B151" s="12">
+      <c r="A151" s="9">
+        <v>147</v>
+      </c>
+      <c r="B151" s="11">
         <v>2</v>
       </c>
       <c r="C151" s="9">
         <v>101</v>
       </c>
-      <c r="D151" s="11">
+      <c r="D151" s="10">
         <v>205</v>
       </c>
       <c r="E151">
@@ -3554,14 +3595,16 @@
       </c>
     </row>
     <row r="152" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A152" s="15"/>
-      <c r="B152" s="12">
+      <c r="A152" s="9">
+        <v>148</v>
+      </c>
+      <c r="B152" s="11">
         <v>2</v>
       </c>
       <c r="C152" s="9">
         <v>101</v>
       </c>
-      <c r="D152" s="11">
+      <c r="D152" s="10">
         <v>205</v>
       </c>
       <c r="E152">
@@ -3572,14 +3615,16 @@
       </c>
     </row>
     <row r="153" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A153" s="15"/>
-      <c r="B153" s="12">
+      <c r="A153" s="9">
+        <v>149</v>
+      </c>
+      <c r="B153" s="11">
         <v>2</v>
       </c>
       <c r="C153" s="9">
         <v>101</v>
       </c>
-      <c r="D153" s="11">
+      <c r="D153" s="10">
         <v>205</v>
       </c>
       <c r="E153">
@@ -3590,14 +3635,16 @@
       </c>
     </row>
     <row r="154" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A154" s="15"/>
-      <c r="B154" s="12">
+      <c r="A154" s="9">
+        <v>150</v>
+      </c>
+      <c r="B154" s="11">
         <v>2</v>
       </c>
       <c r="C154" s="9">
         <v>101</v>
       </c>
-      <c r="D154" s="11">
+      <c r="D154" s="10">
         <v>205</v>
       </c>
       <c r="E154">
@@ -3608,11 +3655,13 @@
       </c>
     </row>
     <row r="155" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A155" s="15"/>
-      <c r="B155" s="12">
-        <v>2</v>
-      </c>
-      <c r="C155" s="15">
+      <c r="A155" s="9">
+        <v>151</v>
+      </c>
+      <c r="B155" s="11">
+        <v>2</v>
+      </c>
+      <c r="C155" s="14">
         <v>102</v>
       </c>
       <c r="D155" s="1">
@@ -3626,11 +3675,13 @@
       </c>
     </row>
     <row r="156" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A156" s="15"/>
-      <c r="B156" s="12">
-        <v>2</v>
-      </c>
-      <c r="C156" s="15">
+      <c r="A156" s="9">
+        <v>152</v>
+      </c>
+      <c r="B156" s="11">
+        <v>2</v>
+      </c>
+      <c r="C156" s="14">
         <v>102</v>
       </c>
       <c r="D156" s="1">
@@ -3639,16 +3690,18 @@
       <c r="E156">
         <v>302</v>
       </c>
-      <c r="F156" s="14">
+      <c r="F156" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A157" s="15"/>
-      <c r="B157" s="12">
-        <v>2</v>
-      </c>
-      <c r="C157" s="15">
+      <c r="A157" s="9">
+        <v>153</v>
+      </c>
+      <c r="B157" s="11">
+        <v>2</v>
+      </c>
+      <c r="C157" s="14">
         <v>102</v>
       </c>
       <c r="D157" s="1">
@@ -3662,11 +3715,13 @@
       </c>
     </row>
     <row r="158" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A158" s="15"/>
-      <c r="B158" s="12">
-        <v>2</v>
-      </c>
-      <c r="C158" s="15">
+      <c r="A158" s="9">
+        <v>154</v>
+      </c>
+      <c r="B158" s="11">
+        <v>2</v>
+      </c>
+      <c r="C158" s="14">
         <v>102</v>
       </c>
       <c r="D158" s="1">
@@ -3680,11 +3735,13 @@
       </c>
     </row>
     <row r="159" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A159" s="15"/>
-      <c r="B159" s="12">
-        <v>2</v>
-      </c>
-      <c r="C159" s="15">
+      <c r="A159" s="9">
+        <v>155</v>
+      </c>
+      <c r="B159" s="11">
+        <v>2</v>
+      </c>
+      <c r="C159" s="14">
         <v>102</v>
       </c>
       <c r="D159" s="1">
@@ -3698,11 +3755,13 @@
       </c>
     </row>
     <row r="160" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A160" s="15"/>
-      <c r="B160" s="12">
-        <v>2</v>
-      </c>
-      <c r="C160" s="15">
+      <c r="A160" s="9">
+        <v>156</v>
+      </c>
+      <c r="B160" s="11">
+        <v>2</v>
+      </c>
+      <c r="C160" s="14">
         <v>102</v>
       </c>
       <c r="D160" s="1">
@@ -3716,11 +3775,13 @@
       </c>
     </row>
     <row r="161" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A161" s="15"/>
-      <c r="B161" s="12">
-        <v>2</v>
-      </c>
-      <c r="C161" s="15">
+      <c r="A161" s="9">
+        <v>157</v>
+      </c>
+      <c r="B161" s="11">
+        <v>2</v>
+      </c>
+      <c r="C161" s="14">
         <v>102</v>
       </c>
       <c r="D161" s="1">
@@ -3734,11 +3795,13 @@
       </c>
     </row>
     <row r="162" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A162" s="15"/>
-      <c r="B162" s="12">
-        <v>2</v>
-      </c>
-      <c r="C162" s="15">
+      <c r="A162" s="9">
+        <v>158</v>
+      </c>
+      <c r="B162" s="11">
+        <v>2</v>
+      </c>
+      <c r="C162" s="14">
         <v>102</v>
       </c>
       <c r="D162" s="1">
@@ -3752,11 +3815,13 @@
       </c>
     </row>
     <row r="163" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A163" s="15"/>
-      <c r="B163" s="12">
-        <v>2</v>
-      </c>
-      <c r="C163" s="15">
+      <c r="A163" s="9">
+        <v>159</v>
+      </c>
+      <c r="B163" s="11">
+        <v>2</v>
+      </c>
+      <c r="C163" s="14">
         <v>102</v>
       </c>
       <c r="D163" s="1">
@@ -3770,11 +3835,13 @@
       </c>
     </row>
     <row r="164" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A164" s="15"/>
-      <c r="B164" s="12">
-        <v>2</v>
-      </c>
-      <c r="C164" s="15">
+      <c r="A164" s="9">
+        <v>160</v>
+      </c>
+      <c r="B164" s="11">
+        <v>2</v>
+      </c>
+      <c r="C164" s="14">
         <v>102</v>
       </c>
       <c r="D164" s="1">
@@ -3788,11 +3855,13 @@
       </c>
     </row>
     <row r="165" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A165" s="15"/>
-      <c r="B165" s="12">
-        <v>2</v>
-      </c>
-      <c r="C165" s="15">
+      <c r="A165" s="9">
+        <v>161</v>
+      </c>
+      <c r="B165" s="11">
+        <v>2</v>
+      </c>
+      <c r="C165" s="14">
         <v>102</v>
       </c>
       <c r="D165" s="1">
@@ -3806,11 +3875,13 @@
       </c>
     </row>
     <row r="166" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A166" s="15"/>
-      <c r="B166" s="12">
-        <v>2</v>
-      </c>
-      <c r="C166" s="15">
+      <c r="A166" s="9">
+        <v>162</v>
+      </c>
+      <c r="B166" s="11">
+        <v>2</v>
+      </c>
+      <c r="C166" s="14">
         <v>102</v>
       </c>
       <c r="D166" s="1">
@@ -3824,11 +3895,13 @@
       </c>
     </row>
     <row r="167" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A167" s="15"/>
-      <c r="B167" s="12">
-        <v>2</v>
-      </c>
-      <c r="C167" s="15">
+      <c r="A167" s="9">
+        <v>163</v>
+      </c>
+      <c r="B167" s="11">
+        <v>2</v>
+      </c>
+      <c r="C167" s="14">
         <v>102</v>
       </c>
       <c r="D167" s="1">
@@ -3842,11 +3915,13 @@
       </c>
     </row>
     <row r="168" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A168" s="15"/>
-      <c r="B168" s="12">
-        <v>2</v>
-      </c>
-      <c r="C168" s="15">
+      <c r="A168" s="9">
+        <v>164</v>
+      </c>
+      <c r="B168" s="11">
+        <v>2</v>
+      </c>
+      <c r="C168" s="14">
         <v>102</v>
       </c>
       <c r="D168" s="1">
@@ -3860,11 +3935,13 @@
       </c>
     </row>
     <row r="169" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A169" s="15"/>
-      <c r="B169" s="12">
-        <v>2</v>
-      </c>
-      <c r="C169" s="15">
+      <c r="A169" s="9">
+        <v>165</v>
+      </c>
+      <c r="B169" s="11">
+        <v>2</v>
+      </c>
+      <c r="C169" s="14">
         <v>102</v>
       </c>
       <c r="D169" s="1">
@@ -3878,14 +3955,16 @@
       </c>
     </row>
     <row r="170" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A170" s="15"/>
-      <c r="B170" s="12">
-        <v>2</v>
-      </c>
-      <c r="C170" s="15">
+      <c r="A170" s="9">
+        <v>166</v>
+      </c>
+      <c r="B170" s="11">
+        <v>2</v>
+      </c>
+      <c r="C170" s="14">
         <v>102</v>
       </c>
-      <c r="D170" s="11">
+      <c r="D170" s="10">
         <v>204</v>
       </c>
       <c r="E170">
@@ -3896,14 +3975,16 @@
       </c>
     </row>
     <row r="171" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A171" s="15"/>
-      <c r="B171" s="12">
-        <v>2</v>
-      </c>
-      <c r="C171" s="15">
+      <c r="A171" s="9">
+        <v>167</v>
+      </c>
+      <c r="B171" s="11">
+        <v>2</v>
+      </c>
+      <c r="C171" s="14">
         <v>102</v>
       </c>
-      <c r="D171" s="11">
+      <c r="D171" s="10">
         <v>204</v>
       </c>
       <c r="E171">
@@ -3914,14 +3995,16 @@
       </c>
     </row>
     <row r="172" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A172" s="15"/>
-      <c r="B172" s="12">
-        <v>2</v>
-      </c>
-      <c r="C172" s="15">
+      <c r="A172" s="9">
+        <v>168</v>
+      </c>
+      <c r="B172" s="11">
+        <v>2</v>
+      </c>
+      <c r="C172" s="14">
         <v>102</v>
       </c>
-      <c r="D172" s="11">
+      <c r="D172" s="10">
         <v>204</v>
       </c>
       <c r="E172">
@@ -3930,17 +4013,19 @@
       <c r="F172">
         <v>20016</v>
       </c>
-      <c r="G172" s="13"/>
+      <c r="G172" s="12"/>
     </row>
     <row r="173" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A173" s="15"/>
-      <c r="B173" s="12">
-        <v>2</v>
-      </c>
-      <c r="C173" s="15">
+      <c r="A173" s="9">
+        <v>169</v>
+      </c>
+      <c r="B173" s="11">
+        <v>2</v>
+      </c>
+      <c r="C173" s="14">
         <v>102</v>
       </c>
-      <c r="D173" s="11">
+      <c r="D173" s="10">
         <v>204</v>
       </c>
       <c r="E173">
@@ -3949,17 +4034,19 @@
       <c r="F173">
         <v>20017</v>
       </c>
-      <c r="G173" s="13"/>
+      <c r="G173" s="12"/>
     </row>
     <row r="174" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A174" s="15"/>
-      <c r="B174" s="12">
-        <v>2</v>
-      </c>
-      <c r="C174" s="15">
+      <c r="A174" s="9">
+        <v>170</v>
+      </c>
+      <c r="B174" s="11">
+        <v>2</v>
+      </c>
+      <c r="C174" s="14">
         <v>102</v>
       </c>
-      <c r="D174" s="11">
+      <c r="D174" s="10">
         <v>204</v>
       </c>
       <c r="E174">
@@ -3968,36 +4055,40 @@
       <c r="F174">
         <v>20018</v>
       </c>
-      <c r="G174" s="13"/>
+      <c r="G174" s="12"/>
     </row>
     <row r="175" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A175" s="15"/>
-      <c r="B175" s="12">
-        <v>2</v>
-      </c>
-      <c r="C175" s="15">
+      <c r="A175" s="9">
+        <v>171</v>
+      </c>
+      <c r="B175" s="11">
+        <v>2</v>
+      </c>
+      <c r="C175" s="14">
         <v>102</v>
       </c>
-      <c r="D175" s="11">
+      <c r="D175" s="10">
         <v>205</v>
       </c>
       <c r="E175">
         <v>301</v>
       </c>
-      <c r="F175" s="14">
+      <c r="F175" s="13">
         <v>0</v>
       </c>
-      <c r="G175" s="13"/>
+      <c r="G175" s="12"/>
     </row>
     <row r="176" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A176" s="15"/>
-      <c r="B176" s="12">
-        <v>2</v>
-      </c>
-      <c r="C176" s="15">
+      <c r="A176" s="9">
+        <v>172</v>
+      </c>
+      <c r="B176" s="11">
+        <v>2</v>
+      </c>
+      <c r="C176" s="14">
         <v>102</v>
       </c>
-      <c r="D176" s="11">
+      <c r="D176" s="10">
         <v>205</v>
       </c>
       <c r="E176">
@@ -4006,17 +4097,19 @@
       <c r="F176">
         <v>20001</v>
       </c>
-      <c r="G176" s="13"/>
+      <c r="G176" s="12"/>
     </row>
     <row r="177" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A177" s="15"/>
-      <c r="B177" s="12">
-        <v>2</v>
-      </c>
-      <c r="C177" s="15">
+      <c r="A177" s="9">
+        <v>173</v>
+      </c>
+      <c r="B177" s="11">
+        <v>2</v>
+      </c>
+      <c r="C177" s="14">
         <v>102</v>
       </c>
-      <c r="D177" s="11">
+      <c r="D177" s="10">
         <v>205</v>
       </c>
       <c r="E177">
@@ -4025,17 +4118,19 @@
       <c r="F177">
         <v>20002</v>
       </c>
-      <c r="G177" s="13"/>
+      <c r="G177" s="12"/>
     </row>
     <row r="178" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A178" s="15"/>
-      <c r="B178" s="12">
-        <v>2</v>
-      </c>
-      <c r="C178" s="15">
+      <c r="A178" s="9">
+        <v>174</v>
+      </c>
+      <c r="B178" s="11">
+        <v>2</v>
+      </c>
+      <c r="C178" s="14">
         <v>102</v>
       </c>
-      <c r="D178" s="11">
+      <c r="D178" s="10">
         <v>205</v>
       </c>
       <c r="E178">
@@ -4044,17 +4139,19 @@
       <c r="F178">
         <v>20003</v>
       </c>
-      <c r="G178" s="13"/>
+      <c r="G178" s="12"/>
     </row>
     <row r="179" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A179" s="15"/>
-      <c r="B179" s="12">
-        <v>2</v>
-      </c>
-      <c r="C179" s="15">
+      <c r="A179" s="9">
+        <v>175</v>
+      </c>
+      <c r="B179" s="11">
+        <v>2</v>
+      </c>
+      <c r="C179" s="14">
         <v>102</v>
       </c>
-      <c r="D179" s="11">
+      <c r="D179" s="10">
         <v>205</v>
       </c>
       <c r="E179">
@@ -4063,14 +4160,16 @@
       <c r="F179">
         <v>20004</v>
       </c>
-      <c r="G179" s="13"/>
+      <c r="G179" s="12"/>
     </row>
     <row r="180" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A180" s="15"/>
-      <c r="B180" s="12">
-        <v>2</v>
-      </c>
-      <c r="C180" s="15">
+      <c r="A180" s="9">
+        <v>176</v>
+      </c>
+      <c r="B180" s="11">
+        <v>2</v>
+      </c>
+      <c r="C180" s="14">
         <v>103</v>
       </c>
       <c r="D180" s="1">
@@ -4082,14 +4181,16 @@
       <c r="F180">
         <v>20005</v>
       </c>
-      <c r="G180" s="13"/>
+      <c r="G180" s="12"/>
     </row>
     <row r="181" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A181" s="15"/>
-      <c r="B181" s="12">
-        <v>2</v>
-      </c>
-      <c r="C181" s="15">
+      <c r="A181" s="9">
+        <v>177</v>
+      </c>
+      <c r="B181" s="11">
+        <v>2</v>
+      </c>
+      <c r="C181" s="14">
         <v>103</v>
       </c>
       <c r="D181" s="1">
@@ -4101,14 +4202,16 @@
       <c r="F181">
         <v>20006</v>
       </c>
-      <c r="G181" s="13"/>
+      <c r="G181" s="12"/>
     </row>
     <row r="182" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A182" s="15"/>
-      <c r="B182" s="12">
-        <v>2</v>
-      </c>
-      <c r="C182" s="15">
+      <c r="A182" s="9">
+        <v>178</v>
+      </c>
+      <c r="B182" s="11">
+        <v>2</v>
+      </c>
+      <c r="C182" s="14">
         <v>103</v>
       </c>
       <c r="D182" s="1">
@@ -4120,14 +4223,16 @@
       <c r="F182">
         <v>20007</v>
       </c>
-      <c r="G182" s="13"/>
+      <c r="G182" s="12"/>
     </row>
     <row r="183" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A183" s="15"/>
-      <c r="B183" s="12">
-        <v>2</v>
-      </c>
-      <c r="C183" s="15">
+      <c r="A183" s="9">
+        <v>179</v>
+      </c>
+      <c r="B183" s="11">
+        <v>2</v>
+      </c>
+      <c r="C183" s="14">
         <v>103</v>
       </c>
       <c r="D183" s="1">
@@ -4139,14 +4244,16 @@
       <c r="F183">
         <v>20008</v>
       </c>
-      <c r="G183" s="13"/>
+      <c r="G183" s="12"/>
     </row>
     <row r="184" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A184" s="15"/>
-      <c r="B184" s="12">
-        <v>2</v>
-      </c>
-      <c r="C184" s="15">
+      <c r="A184" s="9">
+        <v>180</v>
+      </c>
+      <c r="B184" s="11">
+        <v>2</v>
+      </c>
+      <c r="C184" s="14">
         <v>103</v>
       </c>
       <c r="D184" s="1">
@@ -4158,14 +4265,16 @@
       <c r="F184">
         <v>20009</v>
       </c>
-      <c r="G184" s="13"/>
+      <c r="G184" s="12"/>
     </row>
     <row r="185" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A185" s="15"/>
-      <c r="B185" s="12">
-        <v>2</v>
-      </c>
-      <c r="C185" s="15">
+      <c r="A185" s="9">
+        <v>181</v>
+      </c>
+      <c r="B185" s="11">
+        <v>2</v>
+      </c>
+      <c r="C185" s="14">
         <v>103</v>
       </c>
       <c r="D185" s="1">
@@ -4179,11 +4288,13 @@
       </c>
     </row>
     <row r="186" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A186" s="15"/>
-      <c r="B186" s="12">
-        <v>2</v>
-      </c>
-      <c r="C186" s="15">
+      <c r="A186" s="9">
+        <v>182</v>
+      </c>
+      <c r="B186" s="11">
+        <v>2</v>
+      </c>
+      <c r="C186" s="14">
         <v>103</v>
       </c>
       <c r="D186" s="1">
@@ -4197,11 +4308,13 @@
       </c>
     </row>
     <row r="187" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A187" s="15"/>
-      <c r="B187" s="12">
-        <v>2</v>
-      </c>
-      <c r="C187" s="15">
+      <c r="A187" s="9">
+        <v>183</v>
+      </c>
+      <c r="B187" s="11">
+        <v>2</v>
+      </c>
+      <c r="C187" s="14">
         <v>103</v>
       </c>
       <c r="D187" s="1">
@@ -4215,11 +4328,13 @@
       </c>
     </row>
     <row r="188" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A188" s="15"/>
-      <c r="B188" s="12">
-        <v>2</v>
-      </c>
-      <c r="C188" s="15">
+      <c r="A188" s="9">
+        <v>184</v>
+      </c>
+      <c r="B188" s="11">
+        <v>2</v>
+      </c>
+      <c r="C188" s="14">
         <v>103</v>
       </c>
       <c r="D188" s="1">
@@ -4233,11 +4348,13 @@
       </c>
     </row>
     <row r="189" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A189" s="15"/>
-      <c r="B189" s="12">
-        <v>2</v>
-      </c>
-      <c r="C189" s="15">
+      <c r="A189" s="9">
+        <v>185</v>
+      </c>
+      <c r="B189" s="11">
+        <v>2</v>
+      </c>
+      <c r="C189" s="14">
         <v>103</v>
       </c>
       <c r="D189" s="1">
@@ -4251,11 +4368,13 @@
       </c>
     </row>
     <row r="190" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A190" s="15"/>
-      <c r="B190" s="12">
-        <v>2</v>
-      </c>
-      <c r="C190" s="15">
+      <c r="A190" s="9">
+        <v>186</v>
+      </c>
+      <c r="B190" s="11">
+        <v>2</v>
+      </c>
+      <c r="C190" s="14">
         <v>103</v>
       </c>
       <c r="D190" s="1">
@@ -4269,11 +4388,13 @@
       </c>
     </row>
     <row r="191" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A191" s="15"/>
-      <c r="B191" s="12">
-        <v>2</v>
-      </c>
-      <c r="C191" s="15">
+      <c r="A191" s="9">
+        <v>187</v>
+      </c>
+      <c r="B191" s="11">
+        <v>2</v>
+      </c>
+      <c r="C191" s="14">
         <v>103</v>
       </c>
       <c r="D191" s="1">
@@ -4287,11 +4408,13 @@
       </c>
     </row>
     <row r="192" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A192" s="15"/>
-      <c r="B192" s="12">
-        <v>2</v>
-      </c>
-      <c r="C192" s="15">
+      <c r="A192" s="9">
+        <v>188</v>
+      </c>
+      <c r="B192" s="11">
+        <v>2</v>
+      </c>
+      <c r="C192" s="14">
         <v>103</v>
       </c>
       <c r="D192" s="1">
@@ -4305,11 +4428,13 @@
       </c>
     </row>
     <row r="193" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A193" s="15"/>
-      <c r="B193" s="12">
-        <v>2</v>
-      </c>
-      <c r="C193" s="15">
+      <c r="A193" s="9">
+        <v>189</v>
+      </c>
+      <c r="B193" s="11">
+        <v>2</v>
+      </c>
+      <c r="C193" s="14">
         <v>103</v>
       </c>
       <c r="D193" s="1">
@@ -4323,11 +4448,13 @@
       </c>
     </row>
     <row r="194" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A194" s="15"/>
-      <c r="B194" s="12">
-        <v>2</v>
-      </c>
-      <c r="C194" s="15">
+      <c r="A194" s="9">
+        <v>190</v>
+      </c>
+      <c r="B194" s="11">
+        <v>2</v>
+      </c>
+      <c r="C194" s="14">
         <v>103</v>
       </c>
       <c r="D194" s="1">
@@ -4336,19 +4463,21 @@
       <c r="E194">
         <v>305</v>
       </c>
-      <c r="F194" s="14">
+      <c r="F194" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A195" s="15"/>
-      <c r="B195" s="12">
-        <v>2</v>
-      </c>
-      <c r="C195" s="15">
+      <c r="A195" s="9">
+        <v>191</v>
+      </c>
+      <c r="B195" s="11">
+        <v>2</v>
+      </c>
+      <c r="C195" s="14">
         <v>103</v>
       </c>
-      <c r="D195" s="11">
+      <c r="D195" s="10">
         <v>204</v>
       </c>
       <c r="E195">
@@ -4359,14 +4488,16 @@
       </c>
     </row>
     <row r="196" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A196" s="15"/>
-      <c r="B196" s="12">
-        <v>2</v>
-      </c>
-      <c r="C196" s="15">
+      <c r="A196" s="9">
+        <v>192</v>
+      </c>
+      <c r="B196" s="11">
+        <v>2</v>
+      </c>
+      <c r="C196" s="14">
         <v>103</v>
       </c>
-      <c r="D196" s="11">
+      <c r="D196" s="10">
         <v>204</v>
       </c>
       <c r="E196">
@@ -4377,14 +4508,16 @@
       </c>
     </row>
     <row r="197" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A197" s="15"/>
-      <c r="B197" s="12">
-        <v>2</v>
-      </c>
-      <c r="C197" s="15">
+      <c r="A197" s="9">
+        <v>193</v>
+      </c>
+      <c r="B197" s="11">
+        <v>2</v>
+      </c>
+      <c r="C197" s="14">
         <v>103</v>
       </c>
-      <c r="D197" s="11">
+      <c r="D197" s="10">
         <v>204</v>
       </c>
       <c r="E197">
@@ -4395,14 +4528,16 @@
       </c>
     </row>
     <row r="198" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A198" s="15"/>
-      <c r="B198" s="12">
-        <v>2</v>
-      </c>
-      <c r="C198" s="15">
+      <c r="A198" s="9">
+        <v>194</v>
+      </c>
+      <c r="B198" s="11">
+        <v>2</v>
+      </c>
+      <c r="C198" s="14">
         <v>103</v>
       </c>
-      <c r="D198" s="11">
+      <c r="D198" s="10">
         <v>204</v>
       </c>
       <c r="E198">
@@ -4413,14 +4548,16 @@
       </c>
     </row>
     <row r="199" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A199" s="15"/>
-      <c r="B199" s="12">
-        <v>2</v>
-      </c>
-      <c r="C199" s="15">
+      <c r="A199" s="9">
+        <v>195</v>
+      </c>
+      <c r="B199" s="11">
+        <v>2</v>
+      </c>
+      <c r="C199" s="14">
         <v>103</v>
       </c>
-      <c r="D199" s="11">
+      <c r="D199" s="10">
         <v>204</v>
       </c>
       <c r="E199">
@@ -4431,14 +4568,16 @@
       </c>
     </row>
     <row r="200" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A200" s="15"/>
-      <c r="B200" s="12">
-        <v>2</v>
-      </c>
-      <c r="C200" s="15">
+      <c r="A200" s="9">
+        <v>196</v>
+      </c>
+      <c r="B200" s="11">
+        <v>2</v>
+      </c>
+      <c r="C200" s="14">
         <v>103</v>
       </c>
-      <c r="D200" s="11">
+      <c r="D200" s="10">
         <v>205</v>
       </c>
       <c r="E200">
@@ -4449,14 +4588,16 @@
       </c>
     </row>
     <row r="201" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A201" s="15"/>
-      <c r="B201" s="12">
-        <v>2</v>
-      </c>
-      <c r="C201" s="15">
+      <c r="A201" s="9">
+        <v>197</v>
+      </c>
+      <c r="B201" s="11">
+        <v>2</v>
+      </c>
+      <c r="C201" s="14">
         <v>103</v>
       </c>
-      <c r="D201" s="11">
+      <c r="D201" s="10">
         <v>205</v>
       </c>
       <c r="E201">
@@ -4467,14 +4608,16 @@
       </c>
     </row>
     <row r="202" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A202" s="15"/>
-      <c r="B202" s="12">
-        <v>2</v>
-      </c>
-      <c r="C202" s="15">
+      <c r="A202" s="9">
+        <v>198</v>
+      </c>
+      <c r="B202" s="11">
+        <v>2</v>
+      </c>
+      <c r="C202" s="14">
         <v>103</v>
       </c>
-      <c r="D202" s="11">
+      <c r="D202" s="10">
         <v>205</v>
       </c>
       <c r="E202">
@@ -4485,14 +4628,16 @@
       </c>
     </row>
     <row r="203" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A203" s="15"/>
-      <c r="B203" s="12">
-        <v>2</v>
-      </c>
-      <c r="C203" s="15">
+      <c r="A203" s="9">
+        <v>199</v>
+      </c>
+      <c r="B203" s="11">
+        <v>2</v>
+      </c>
+      <c r="C203" s="14">
         <v>103</v>
       </c>
-      <c r="D203" s="11">
+      <c r="D203" s="10">
         <v>205</v>
       </c>
       <c r="E203">
@@ -4503,14 +4648,16 @@
       </c>
     </row>
     <row r="204" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A204" s="15"/>
-      <c r="B204" s="12">
-        <v>2</v>
-      </c>
-      <c r="C204" s="15">
+      <c r="A204" s="9">
+        <v>200</v>
+      </c>
+      <c r="B204" s="11">
+        <v>2</v>
+      </c>
+      <c r="C204" s="14">
         <v>103</v>
       </c>
-      <c r="D204" s="11">
+      <c r="D204" s="10">
         <v>205</v>
       </c>
       <c r="E204">
@@ -4521,11 +4668,13 @@
       </c>
     </row>
     <row r="205" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A205" s="15"/>
-      <c r="B205" s="12">
-        <v>2</v>
-      </c>
-      <c r="C205" s="15">
+      <c r="A205" s="9">
+        <v>201</v>
+      </c>
+      <c r="B205" s="11">
+        <v>2</v>
+      </c>
+      <c r="C205" s="14">
         <v>104</v>
       </c>
       <c r="D205" s="1">
@@ -4539,11 +4688,13 @@
       </c>
     </row>
     <row r="206" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A206" s="15"/>
-      <c r="B206" s="12">
-        <v>2</v>
-      </c>
-      <c r="C206" s="15">
+      <c r="A206" s="9">
+        <v>202</v>
+      </c>
+      <c r="B206" s="11">
+        <v>2</v>
+      </c>
+      <c r="C206" s="14">
         <v>104</v>
       </c>
       <c r="D206" s="1">
@@ -4557,11 +4708,13 @@
       </c>
     </row>
     <row r="207" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A207" s="15"/>
-      <c r="B207" s="12">
-        <v>2</v>
-      </c>
-      <c r="C207" s="15">
+      <c r="A207" s="9">
+        <v>203</v>
+      </c>
+      <c r="B207" s="11">
+        <v>2</v>
+      </c>
+      <c r="C207" s="14">
         <v>104</v>
       </c>
       <c r="D207" s="1">
@@ -4575,11 +4728,13 @@
       </c>
     </row>
     <row r="208" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A208" s="15"/>
-      <c r="B208" s="12">
-        <v>2</v>
-      </c>
-      <c r="C208" s="15">
+      <c r="A208" s="9">
+        <v>204</v>
+      </c>
+      <c r="B208" s="11">
+        <v>2</v>
+      </c>
+      <c r="C208" s="14">
         <v>104</v>
       </c>
       <c r="D208" s="1">
@@ -4593,11 +4748,13 @@
       </c>
     </row>
     <row r="209" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A209" s="15"/>
-      <c r="B209" s="12">
-        <v>2</v>
-      </c>
-      <c r="C209" s="15">
+      <c r="A209" s="9">
+        <v>205</v>
+      </c>
+      <c r="B209" s="11">
+        <v>2</v>
+      </c>
+      <c r="C209" s="14">
         <v>104</v>
       </c>
       <c r="D209" s="1">
@@ -4611,11 +4768,13 @@
       </c>
     </row>
     <row r="210" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A210" s="15"/>
-      <c r="B210" s="12">
-        <v>2</v>
-      </c>
-      <c r="C210" s="15">
+      <c r="A210" s="9">
+        <v>206</v>
+      </c>
+      <c r="B210" s="11">
+        <v>2</v>
+      </c>
+      <c r="C210" s="14">
         <v>104</v>
       </c>
       <c r="D210" s="1">
@@ -4629,11 +4788,13 @@
       </c>
     </row>
     <row r="211" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A211" s="15"/>
-      <c r="B211" s="12">
-        <v>2</v>
-      </c>
-      <c r="C211" s="15">
+      <c r="A211" s="9">
+        <v>207</v>
+      </c>
+      <c r="B211" s="11">
+        <v>2</v>
+      </c>
+      <c r="C211" s="14">
         <v>104</v>
       </c>
       <c r="D211" s="1">
@@ -4647,11 +4808,13 @@
       </c>
     </row>
     <row r="212" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A212" s="15"/>
-      <c r="B212" s="12">
-        <v>2</v>
-      </c>
-      <c r="C212" s="15">
+      <c r="A212" s="9">
+        <v>208</v>
+      </c>
+      <c r="B212" s="11">
+        <v>2</v>
+      </c>
+      <c r="C212" s="14">
         <v>104</v>
       </c>
       <c r="D212" s="1">
@@ -4665,11 +4828,13 @@
       </c>
     </row>
     <row r="213" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A213" s="15"/>
-      <c r="B213" s="12">
-        <v>2</v>
-      </c>
-      <c r="C213" s="15">
+      <c r="A213" s="9">
+        <v>209</v>
+      </c>
+      <c r="B213" s="11">
+        <v>2</v>
+      </c>
+      <c r="C213" s="14">
         <v>104</v>
       </c>
       <c r="D213" s="1">
@@ -4678,16 +4843,18 @@
       <c r="E213">
         <v>304</v>
       </c>
-      <c r="F213" s="14">
+      <c r="F213" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A214" s="15"/>
-      <c r="B214" s="12">
-        <v>2</v>
-      </c>
-      <c r="C214" s="15">
+      <c r="A214" s="9">
+        <v>210</v>
+      </c>
+      <c r="B214" s="11">
+        <v>2</v>
+      </c>
+      <c r="C214" s="14">
         <v>104</v>
       </c>
       <c r="D214" s="1">
@@ -4701,11 +4868,13 @@
       </c>
     </row>
     <row r="215" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A215" s="15"/>
-      <c r="B215" s="12">
-        <v>2</v>
-      </c>
-      <c r="C215" s="15">
+      <c r="A215" s="9">
+        <v>211</v>
+      </c>
+      <c r="B215" s="11">
+        <v>2</v>
+      </c>
+      <c r="C215" s="14">
         <v>104</v>
       </c>
       <c r="D215" s="1">
@@ -4719,11 +4888,13 @@
       </c>
     </row>
     <row r="216" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A216" s="15"/>
-      <c r="B216" s="12">
-        <v>2</v>
-      </c>
-      <c r="C216" s="15">
+      <c r="A216" s="9">
+        <v>212</v>
+      </c>
+      <c r="B216" s="11">
+        <v>2</v>
+      </c>
+      <c r="C216" s="14">
         <v>104</v>
       </c>
       <c r="D216" s="1">
@@ -4737,11 +4908,13 @@
       </c>
     </row>
     <row r="217" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A217" s="15"/>
-      <c r="B217" s="12">
-        <v>2</v>
-      </c>
-      <c r="C217" s="15">
+      <c r="A217" s="9">
+        <v>213</v>
+      </c>
+      <c r="B217" s="11">
+        <v>2</v>
+      </c>
+      <c r="C217" s="14">
         <v>104</v>
       </c>
       <c r="D217" s="1">
@@ -4755,11 +4928,13 @@
       </c>
     </row>
     <row r="218" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A218" s="15"/>
-      <c r="B218" s="12">
-        <v>2</v>
-      </c>
-      <c r="C218" s="15">
+      <c r="A218" s="9">
+        <v>214</v>
+      </c>
+      <c r="B218" s="11">
+        <v>2</v>
+      </c>
+      <c r="C218" s="14">
         <v>104</v>
       </c>
       <c r="D218" s="1">
@@ -4773,11 +4948,13 @@
       </c>
     </row>
     <row r="219" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A219" s="15"/>
-      <c r="B219" s="12">
-        <v>2</v>
-      </c>
-      <c r="C219" s="15">
+      <c r="A219" s="9">
+        <v>215</v>
+      </c>
+      <c r="B219" s="11">
+        <v>2</v>
+      </c>
+      <c r="C219" s="14">
         <v>104</v>
       </c>
       <c r="D219" s="1">
@@ -4791,14 +4968,16 @@
       </c>
     </row>
     <row r="220" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A220" s="15"/>
-      <c r="B220" s="12">
-        <v>2</v>
-      </c>
-      <c r="C220" s="15">
+      <c r="A220" s="9">
+        <v>216</v>
+      </c>
+      <c r="B220" s="11">
+        <v>2</v>
+      </c>
+      <c r="C220" s="14">
         <v>104</v>
       </c>
-      <c r="D220" s="11">
+      <c r="D220" s="10">
         <v>204</v>
       </c>
       <c r="E220">
@@ -4809,14 +4988,16 @@
       </c>
     </row>
     <row r="221" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A221" s="15"/>
-      <c r="B221" s="12">
-        <v>2</v>
-      </c>
-      <c r="C221" s="15">
+      <c r="A221" s="9">
+        <v>217</v>
+      </c>
+      <c r="B221" s="11">
+        <v>2</v>
+      </c>
+      <c r="C221" s="14">
         <v>104</v>
       </c>
-      <c r="D221" s="11">
+      <c r="D221" s="10">
         <v>204</v>
       </c>
       <c r="E221">
@@ -4827,14 +5008,16 @@
       </c>
     </row>
     <row r="222" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A222" s="10"/>
-      <c r="B222" s="12">
-        <v>2</v>
-      </c>
-      <c r="C222" s="15">
+      <c r="A222" s="9">
+        <v>218</v>
+      </c>
+      <c r="B222" s="11">
+        <v>2</v>
+      </c>
+      <c r="C222" s="14">
         <v>104</v>
       </c>
-      <c r="D222" s="11">
+      <c r="D222" s="10">
         <v>204</v>
       </c>
       <c r="E222">
@@ -4845,14 +5028,16 @@
       </c>
     </row>
     <row r="223" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A223" s="10"/>
-      <c r="B223" s="12">
-        <v>2</v>
-      </c>
-      <c r="C223" s="15">
+      <c r="A223" s="9">
+        <v>219</v>
+      </c>
+      <c r="B223" s="11">
+        <v>2</v>
+      </c>
+      <c r="C223" s="14">
         <v>104</v>
       </c>
-      <c r="D223" s="11">
+      <c r="D223" s="10">
         <v>204</v>
       </c>
       <c r="E223">
@@ -4863,14 +5048,16 @@
       </c>
     </row>
     <row r="224" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A224" s="10"/>
-      <c r="B224" s="12">
-        <v>2</v>
-      </c>
-      <c r="C224" s="15">
+      <c r="A224" s="9">
+        <v>220</v>
+      </c>
+      <c r="B224" s="11">
+        <v>2</v>
+      </c>
+      <c r="C224" s="14">
         <v>104</v>
       </c>
-      <c r="D224" s="11">
+      <c r="D224" s="10">
         <v>204</v>
       </c>
       <c r="E224">
@@ -4881,14 +5068,16 @@
       </c>
     </row>
     <row r="225" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A225" s="10"/>
-      <c r="B225" s="12">
-        <v>2</v>
-      </c>
-      <c r="C225" s="15">
+      <c r="A225" s="9">
+        <v>221</v>
+      </c>
+      <c r="B225" s="11">
+        <v>2</v>
+      </c>
+      <c r="C225" s="14">
         <v>104</v>
       </c>
-      <c r="D225" s="11">
+      <c r="D225" s="10">
         <v>205</v>
       </c>
       <c r="E225">
@@ -4899,14 +5088,16 @@
       </c>
     </row>
     <row r="226" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A226"/>
-      <c r="B226" s="12">
-        <v>2</v>
-      </c>
-      <c r="C226" s="15">
+      <c r="A226" s="9">
+        <v>222</v>
+      </c>
+      <c r="B226" s="11">
+        <v>2</v>
+      </c>
+      <c r="C226" s="14">
         <v>104</v>
       </c>
-      <c r="D226" s="11">
+      <c r="D226" s="10">
         <v>205</v>
       </c>
       <c r="E226">
@@ -4917,14 +5108,16 @@
       </c>
     </row>
     <row r="227" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A227"/>
-      <c r="B227" s="12">
-        <v>2</v>
-      </c>
-      <c r="C227" s="15">
+      <c r="A227" s="9">
+        <v>223</v>
+      </c>
+      <c r="B227" s="11">
+        <v>2</v>
+      </c>
+      <c r="C227" s="14">
         <v>104</v>
       </c>
-      <c r="D227" s="11">
+      <c r="D227" s="10">
         <v>205</v>
       </c>
       <c r="E227">
@@ -4935,14 +5128,16 @@
       </c>
     </row>
     <row r="228" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A228"/>
-      <c r="B228" s="12">
-        <v>2</v>
-      </c>
-      <c r="C228" s="15">
+      <c r="A228" s="9">
+        <v>224</v>
+      </c>
+      <c r="B228" s="11">
+        <v>2</v>
+      </c>
+      <c r="C228" s="14">
         <v>104</v>
       </c>
-      <c r="D228" s="11">
+      <c r="D228" s="10">
         <v>205</v>
       </c>
       <c r="E228">
@@ -4953,14 +5148,16 @@
       </c>
     </row>
     <row r="229" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A229"/>
-      <c r="B229" s="12">
-        <v>2</v>
-      </c>
-      <c r="C229" s="15">
+      <c r="A229" s="9">
+        <v>225</v>
+      </c>
+      <c r="B229" s="11">
+        <v>2</v>
+      </c>
+      <c r="C229" s="14">
         <v>104</v>
       </c>
-      <c r="D229" s="11">
+      <c r="D229" s="10">
         <v>205</v>
       </c>
       <c r="E229">
@@ -4971,11 +5168,13 @@
       </c>
     </row>
     <row r="230" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A230"/>
-      <c r="B230" s="12">
-        <v>2</v>
-      </c>
-      <c r="C230" s="15">
+      <c r="A230" s="9">
+        <v>226</v>
+      </c>
+      <c r="B230" s="11">
+        <v>2</v>
+      </c>
+      <c r="C230" s="14">
         <v>105</v>
       </c>
       <c r="D230" s="1">
@@ -4989,11 +5188,13 @@
       </c>
     </row>
     <row r="231" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A231"/>
-      <c r="B231" s="12">
-        <v>2</v>
-      </c>
-      <c r="C231" s="15">
+      <c r="A231" s="9">
+        <v>227</v>
+      </c>
+      <c r="B231" s="11">
+        <v>2</v>
+      </c>
+      <c r="C231" s="14">
         <v>105</v>
       </c>
       <c r="D231" s="1">
@@ -5007,11 +5208,13 @@
       </c>
     </row>
     <row r="232" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A232"/>
-      <c r="B232" s="12">
-        <v>2</v>
-      </c>
-      <c r="C232" s="15">
+      <c r="A232" s="9">
+        <v>228</v>
+      </c>
+      <c r="B232" s="11">
+        <v>2</v>
+      </c>
+      <c r="C232" s="14">
         <v>105</v>
       </c>
       <c r="D232" s="1">
@@ -5020,16 +5223,18 @@
       <c r="E232">
         <v>303</v>
       </c>
-      <c r="F232" s="14">
+      <c r="F232" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A233"/>
-      <c r="B233" s="12">
-        <v>2</v>
-      </c>
-      <c r="C233" s="15">
+      <c r="A233" s="9">
+        <v>229</v>
+      </c>
+      <c r="B233" s="11">
+        <v>2</v>
+      </c>
+      <c r="C233" s="14">
         <v>105</v>
       </c>
       <c r="D233" s="1">
@@ -5043,11 +5248,13 @@
       </c>
     </row>
     <row r="234" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A234"/>
-      <c r="B234" s="12">
-        <v>2</v>
-      </c>
-      <c r="C234" s="15">
+      <c r="A234" s="9">
+        <v>230</v>
+      </c>
+      <c r="B234" s="11">
+        <v>2</v>
+      </c>
+      <c r="C234" s="14">
         <v>105</v>
       </c>
       <c r="D234" s="1">
@@ -5061,11 +5268,13 @@
       </c>
     </row>
     <row r="235" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A235"/>
-      <c r="B235" s="12">
-        <v>2</v>
-      </c>
-      <c r="C235" s="15">
+      <c r="A235" s="9">
+        <v>231</v>
+      </c>
+      <c r="B235" s="11">
+        <v>2</v>
+      </c>
+      <c r="C235" s="14">
         <v>105</v>
       </c>
       <c r="D235" s="1">
@@ -5079,11 +5288,13 @@
       </c>
     </row>
     <row r="236" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A236"/>
-      <c r="B236" s="12">
-        <v>2</v>
-      </c>
-      <c r="C236" s="15">
+      <c r="A236" s="9">
+        <v>232</v>
+      </c>
+      <c r="B236" s="11">
+        <v>2</v>
+      </c>
+      <c r="C236" s="14">
         <v>105</v>
       </c>
       <c r="D236" s="1">
@@ -5097,11 +5308,13 @@
       </c>
     </row>
     <row r="237" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A237"/>
-      <c r="B237" s="12">
-        <v>2</v>
-      </c>
-      <c r="C237" s="15">
+      <c r="A237" s="9">
+        <v>233</v>
+      </c>
+      <c r="B237" s="11">
+        <v>2</v>
+      </c>
+      <c r="C237" s="14">
         <v>105</v>
       </c>
       <c r="D237" s="1">
@@ -5115,11 +5328,13 @@
       </c>
     </row>
     <row r="238" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A238"/>
-      <c r="B238" s="12">
-        <v>2</v>
-      </c>
-      <c r="C238" s="15">
+      <c r="A238" s="9">
+        <v>234</v>
+      </c>
+      <c r="B238" s="11">
+        <v>2</v>
+      </c>
+      <c r="C238" s="14">
         <v>105</v>
       </c>
       <c r="D238" s="1">
@@ -5133,11 +5348,13 @@
       </c>
     </row>
     <row r="239" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A239"/>
-      <c r="B239" s="12">
-        <v>2</v>
-      </c>
-      <c r="C239" s="15">
+      <c r="A239" s="9">
+        <v>235</v>
+      </c>
+      <c r="B239" s="11">
+        <v>2</v>
+      </c>
+      <c r="C239" s="14">
         <v>105</v>
       </c>
       <c r="D239" s="1">
@@ -5151,11 +5368,13 @@
       </c>
     </row>
     <row r="240" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A240"/>
-      <c r="B240" s="12">
-        <v>2</v>
-      </c>
-      <c r="C240" s="15">
+      <c r="A240" s="9">
+        <v>236</v>
+      </c>
+      <c r="B240" s="11">
+        <v>2</v>
+      </c>
+      <c r="C240" s="14">
         <v>105</v>
       </c>
       <c r="D240" s="1">
@@ -5169,11 +5388,13 @@
       </c>
     </row>
     <row r="241" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A241"/>
-      <c r="B241" s="12">
-        <v>2</v>
-      </c>
-      <c r="C241" s="15">
+      <c r="A241" s="9">
+        <v>237</v>
+      </c>
+      <c r="B241" s="11">
+        <v>2</v>
+      </c>
+      <c r="C241" s="14">
         <v>105</v>
       </c>
       <c r="D241" s="1">
@@ -5187,11 +5408,13 @@
       </c>
     </row>
     <row r="242" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A242"/>
-      <c r="B242" s="12">
-        <v>2</v>
-      </c>
-      <c r="C242" s="15">
+      <c r="A242" s="9">
+        <v>238</v>
+      </c>
+      <c r="B242" s="11">
+        <v>2</v>
+      </c>
+      <c r="C242" s="14">
         <v>105</v>
       </c>
       <c r="D242" s="1">
@@ -5205,11 +5428,13 @@
       </c>
     </row>
     <row r="243" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A243"/>
-      <c r="B243" s="12">
-        <v>2</v>
-      </c>
-      <c r="C243" s="15">
+      <c r="A243" s="9">
+        <v>239</v>
+      </c>
+      <c r="B243" s="11">
+        <v>2</v>
+      </c>
+      <c r="C243" s="14">
         <v>105</v>
       </c>
       <c r="D243" s="1">
@@ -5223,11 +5448,13 @@
       </c>
     </row>
     <row r="244" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A244"/>
-      <c r="B244" s="12">
-        <v>2</v>
-      </c>
-      <c r="C244" s="15">
+      <c r="A244" s="9">
+        <v>240</v>
+      </c>
+      <c r="B244" s="11">
+        <v>2</v>
+      </c>
+      <c r="C244" s="14">
         <v>105</v>
       </c>
       <c r="D244" s="1">
@@ -5241,14 +5468,16 @@
       </c>
     </row>
     <row r="245" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A245"/>
-      <c r="B245" s="12">
-        <v>2</v>
-      </c>
-      <c r="C245" s="15">
+      <c r="A245" s="9">
+        <v>241</v>
+      </c>
+      <c r="B245" s="11">
+        <v>2</v>
+      </c>
+      <c r="C245" s="14">
         <v>105</v>
       </c>
-      <c r="D245" s="11">
+      <c r="D245" s="10">
         <v>204</v>
       </c>
       <c r="E245">
@@ -5259,14 +5488,16 @@
       </c>
     </row>
     <row r="246" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A246"/>
-      <c r="B246" s="12">
-        <v>2</v>
-      </c>
-      <c r="C246" s="15">
+      <c r="A246" s="9">
+        <v>242</v>
+      </c>
+      <c r="B246" s="11">
+        <v>2</v>
+      </c>
+      <c r="C246" s="14">
         <v>105</v>
       </c>
-      <c r="D246" s="11">
+      <c r="D246" s="10">
         <v>204</v>
       </c>
       <c r="E246">
@@ -5277,14 +5508,16 @@
       </c>
     </row>
     <row r="247" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A247"/>
-      <c r="B247" s="12">
-        <v>2</v>
-      </c>
-      <c r="C247" s="15">
+      <c r="A247" s="9">
+        <v>243</v>
+      </c>
+      <c r="B247" s="11">
+        <v>2</v>
+      </c>
+      <c r="C247" s="14">
         <v>105</v>
       </c>
-      <c r="D247" s="11">
+      <c r="D247" s="10">
         <v>204</v>
       </c>
       <c r="E247">
@@ -5295,14 +5528,16 @@
       </c>
     </row>
     <row r="248" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A248"/>
-      <c r="B248" s="12">
-        <v>2</v>
-      </c>
-      <c r="C248" s="15">
+      <c r="A248" s="9">
+        <v>244</v>
+      </c>
+      <c r="B248" s="11">
+        <v>2</v>
+      </c>
+      <c r="C248" s="14">
         <v>105</v>
       </c>
-      <c r="D248" s="11">
+      <c r="D248" s="10">
         <v>204</v>
       </c>
       <c r="E248">
@@ -5313,14 +5548,16 @@
       </c>
     </row>
     <row r="249" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A249"/>
-      <c r="B249" s="12">
-        <v>2</v>
-      </c>
-      <c r="C249" s="15">
+      <c r="A249" s="9">
+        <v>245</v>
+      </c>
+      <c r="B249" s="11">
+        <v>2</v>
+      </c>
+      <c r="C249" s="14">
         <v>105</v>
       </c>
-      <c r="D249" s="11">
+      <c r="D249" s="10">
         <v>204</v>
       </c>
       <c r="E249">
@@ -5331,14 +5568,16 @@
       </c>
     </row>
     <row r="250" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A250"/>
-      <c r="B250" s="12">
-        <v>2</v>
-      </c>
-      <c r="C250" s="15">
+      <c r="A250" s="9">
+        <v>246</v>
+      </c>
+      <c r="B250" s="11">
+        <v>2</v>
+      </c>
+      <c r="C250" s="14">
         <v>105</v>
       </c>
-      <c r="D250" s="11">
+      <c r="D250" s="10">
         <v>205</v>
       </c>
       <c r="E250">
@@ -5349,32 +5588,36 @@
       </c>
     </row>
     <row r="251" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A251"/>
-      <c r="B251" s="12">
-        <v>2</v>
-      </c>
-      <c r="C251" s="15">
+      <c r="A251" s="9">
+        <v>247</v>
+      </c>
+      <c r="B251" s="11">
+        <v>2</v>
+      </c>
+      <c r="C251" s="14">
         <v>105</v>
       </c>
-      <c r="D251" s="11">
+      <c r="D251" s="10">
         <v>205</v>
       </c>
       <c r="E251">
         <v>302</v>
       </c>
-      <c r="F251" s="14">
+      <c r="F251" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A252"/>
-      <c r="B252" s="12">
-        <v>2</v>
-      </c>
-      <c r="C252" s="15">
+      <c r="A252" s="9">
+        <v>248</v>
+      </c>
+      <c r="B252" s="11">
+        <v>2</v>
+      </c>
+      <c r="C252" s="14">
         <v>105</v>
       </c>
-      <c r="D252" s="11">
+      <c r="D252" s="10">
         <v>205</v>
       </c>
       <c r="E252">
@@ -5385,14 +5628,16 @@
       </c>
     </row>
     <row r="253" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A253"/>
-      <c r="B253" s="12">
-        <v>2</v>
-      </c>
-      <c r="C253" s="15">
+      <c r="A253" s="9">
+        <v>249</v>
+      </c>
+      <c r="B253" s="11">
+        <v>2</v>
+      </c>
+      <c r="C253" s="14">
         <v>105</v>
       </c>
-      <c r="D253" s="11">
+      <c r="D253" s="10">
         <v>205</v>
       </c>
       <c r="E253">
@@ -5403,14 +5648,16 @@
       </c>
     </row>
     <row r="254" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A254"/>
-      <c r="B254" s="12">
-        <v>2</v>
-      </c>
-      <c r="C254" s="15">
+      <c r="A254" s="9">
+        <v>250</v>
+      </c>
+      <c r="B254" s="11">
+        <v>2</v>
+      </c>
+      <c r="C254" s="14">
         <v>105</v>
       </c>
-      <c r="D254" s="11">
+      <c r="D254" s="10">
         <v>205</v>
       </c>
       <c r="E254">
@@ -5421,8 +5668,10 @@
       </c>
     </row>
     <row r="255" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A255"/>
-      <c r="B255" s="12">
+      <c r="A255" s="9">
+        <v>251</v>
+      </c>
+      <c r="B255" s="11">
         <v>3</v>
       </c>
       <c r="C255" s="9">
@@ -5439,8 +5688,10 @@
       </c>
     </row>
     <row r="256" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A256"/>
-      <c r="B256" s="12">
+      <c r="A256" s="9">
+        <v>252</v>
+      </c>
+      <c r="B256" s="11">
         <v>3</v>
       </c>
       <c r="C256" s="9">
@@ -5457,8 +5708,10 @@
       </c>
     </row>
     <row r="257" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A257"/>
-      <c r="B257" s="12">
+      <c r="A257" s="9">
+        <v>253</v>
+      </c>
+      <c r="B257" s="11">
         <v>3</v>
       </c>
       <c r="C257" s="9">
@@ -5475,8 +5728,10 @@
       </c>
     </row>
     <row r="258" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A258"/>
-      <c r="B258" s="12">
+      <c r="A258" s="9">
+        <v>254</v>
+      </c>
+      <c r="B258" s="11">
         <v>3</v>
       </c>
       <c r="C258" s="9">
@@ -5493,8 +5748,10 @@
       </c>
     </row>
     <row r="259" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A259"/>
-      <c r="B259" s="12">
+      <c r="A259" s="9">
+        <v>255</v>
+      </c>
+      <c r="B259" s="11">
         <v>3</v>
       </c>
       <c r="C259" s="9">
@@ -5511,8 +5768,10 @@
       </c>
     </row>
     <row r="260" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A260"/>
-      <c r="B260" s="12">
+      <c r="A260" s="9">
+        <v>256</v>
+      </c>
+      <c r="B260" s="11">
         <v>3</v>
       </c>
       <c r="C260" s="9">
@@ -5529,8 +5788,10 @@
       </c>
     </row>
     <row r="261" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A261"/>
-      <c r="B261" s="12">
+      <c r="A261" s="9">
+        <v>257</v>
+      </c>
+      <c r="B261" s="11">
         <v>3</v>
       </c>
       <c r="C261" s="9">
@@ -5547,8 +5808,10 @@
       </c>
     </row>
     <row r="262" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A262"/>
-      <c r="B262" s="12">
+      <c r="A262" s="9">
+        <v>258</v>
+      </c>
+      <c r="B262" s="11">
         <v>3</v>
       </c>
       <c r="C262" s="9">
@@ -5565,8 +5828,10 @@
       </c>
     </row>
     <row r="263" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A263"/>
-      <c r="B263" s="12">
+      <c r="A263" s="9">
+        <v>259</v>
+      </c>
+      <c r="B263" s="11">
         <v>3</v>
       </c>
       <c r="C263" s="9">
@@ -5583,8 +5848,10 @@
       </c>
     </row>
     <row r="264" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A264"/>
-      <c r="B264" s="12">
+      <c r="A264" s="9">
+        <v>260</v>
+      </c>
+      <c r="B264" s="11">
         <v>3</v>
       </c>
       <c r="C264" s="9">
@@ -5601,8 +5868,10 @@
       </c>
     </row>
     <row r="265" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A265"/>
-      <c r="B265" s="12">
+      <c r="A265" s="9">
+        <v>261</v>
+      </c>
+      <c r="B265" s="11">
         <v>3</v>
       </c>
       <c r="C265" s="9">
@@ -5619,8 +5888,10 @@
       </c>
     </row>
     <row r="266" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A266"/>
-      <c r="B266" s="12">
+      <c r="A266" s="9">
+        <v>262</v>
+      </c>
+      <c r="B266" s="11">
         <v>3</v>
       </c>
       <c r="C266" s="9">
@@ -5637,8 +5908,10 @@
       </c>
     </row>
     <row r="267" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A267"/>
-      <c r="B267" s="12">
+      <c r="A267" s="9">
+        <v>263</v>
+      </c>
+      <c r="B267" s="11">
         <v>3</v>
       </c>
       <c r="C267" s="9">
@@ -5655,8 +5928,10 @@
       </c>
     </row>
     <row r="268" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A268"/>
-      <c r="B268" s="12">
+      <c r="A268" s="9">
+        <v>264</v>
+      </c>
+      <c r="B268" s="11">
         <v>3</v>
       </c>
       <c r="C268" s="9">
@@ -5673,8 +5948,10 @@
       </c>
     </row>
     <row r="269" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A269"/>
-      <c r="B269" s="12">
+      <c r="A269" s="9">
+        <v>265</v>
+      </c>
+      <c r="B269" s="11">
         <v>3</v>
       </c>
       <c r="C269" s="9">
@@ -5691,32 +5968,36 @@
       </c>
     </row>
     <row r="270" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A270"/>
-      <c r="B270" s="12">
+      <c r="A270" s="9">
+        <v>266</v>
+      </c>
+      <c r="B270" s="11">
         <v>3</v>
       </c>
       <c r="C270" s="9">
         <v>101</v>
       </c>
-      <c r="D270" s="11">
+      <c r="D270" s="10">
         <v>204</v>
       </c>
       <c r="E270">
         <v>301</v>
       </c>
-      <c r="F270" s="14">
+      <c r="F270" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A271"/>
-      <c r="B271" s="12">
+      <c r="A271" s="9">
+        <v>267</v>
+      </c>
+      <c r="B271" s="11">
         <v>3</v>
       </c>
       <c r="C271" s="9">
         <v>101</v>
       </c>
-      <c r="D271" s="11">
+      <c r="D271" s="10">
         <v>204</v>
       </c>
       <c r="E271">
@@ -5727,14 +6008,16 @@
       </c>
     </row>
     <row r="272" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A272"/>
-      <c r="B272" s="12">
+      <c r="A272" s="9">
+        <v>268</v>
+      </c>
+      <c r="B272" s="11">
         <v>3</v>
       </c>
       <c r="C272" s="9">
         <v>101</v>
       </c>
-      <c r="D272" s="11">
+      <c r="D272" s="10">
         <v>204</v>
       </c>
       <c r="E272">
@@ -5745,14 +6028,16 @@
       </c>
     </row>
     <row r="273" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A273"/>
-      <c r="B273" s="12">
+      <c r="A273" s="9">
+        <v>269</v>
+      </c>
+      <c r="B273" s="11">
         <v>3</v>
       </c>
       <c r="C273" s="9">
         <v>101</v>
       </c>
-      <c r="D273" s="11">
+      <c r="D273" s="10">
         <v>204</v>
       </c>
       <c r="E273">
@@ -5763,14 +6048,16 @@
       </c>
     </row>
     <row r="274" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A274"/>
-      <c r="B274" s="12">
+      <c r="A274" s="9">
+        <v>270</v>
+      </c>
+      <c r="B274" s="11">
         <v>3</v>
       </c>
       <c r="C274" s="9">
         <v>101</v>
       </c>
-      <c r="D274" s="11">
+      <c r="D274" s="10">
         <v>204</v>
       </c>
       <c r="E274">
@@ -5781,14 +6068,16 @@
       </c>
     </row>
     <row r="275" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A275"/>
-      <c r="B275" s="12">
+      <c r="A275" s="9">
+        <v>271</v>
+      </c>
+      <c r="B275" s="11">
         <v>3</v>
       </c>
       <c r="C275" s="9">
         <v>101</v>
       </c>
-      <c r="D275" s="11">
+      <c r="D275" s="10">
         <v>205</v>
       </c>
       <c r="E275">
@@ -5799,14 +6088,16 @@
       </c>
     </row>
     <row r="276" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A276"/>
-      <c r="B276" s="12">
+      <c r="A276" s="9">
+        <v>272</v>
+      </c>
+      <c r="B276" s="11">
         <v>3</v>
       </c>
       <c r="C276" s="9">
         <v>101</v>
       </c>
-      <c r="D276" s="11">
+      <c r="D276" s="10">
         <v>205</v>
       </c>
       <c r="E276">
@@ -5817,14 +6108,16 @@
       </c>
     </row>
     <row r="277" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A277"/>
-      <c r="B277" s="12">
+      <c r="A277" s="9">
+        <v>273</v>
+      </c>
+      <c r="B277" s="11">
         <v>3</v>
       </c>
       <c r="C277" s="9">
         <v>101</v>
       </c>
-      <c r="D277" s="11">
+      <c r="D277" s="10">
         <v>205</v>
       </c>
       <c r="E277">
@@ -5835,14 +6128,16 @@
       </c>
     </row>
     <row r="278" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A278"/>
-      <c r="B278" s="12">
+      <c r="A278" s="9">
+        <v>274</v>
+      </c>
+      <c r="B278" s="11">
         <v>3</v>
       </c>
       <c r="C278" s="9">
         <v>101</v>
       </c>
-      <c r="D278" s="11">
+      <c r="D278" s="10">
         <v>205</v>
       </c>
       <c r="E278">
@@ -5853,14 +6148,16 @@
       </c>
     </row>
     <row r="279" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A279"/>
-      <c r="B279" s="12">
+      <c r="A279" s="9">
+        <v>275</v>
+      </c>
+      <c r="B279" s="11">
         <v>3</v>
       </c>
       <c r="C279" s="9">
         <v>101</v>
       </c>
-      <c r="D279" s="11">
+      <c r="D279" s="10">
         <v>205</v>
       </c>
       <c r="E279">
@@ -5871,11 +6168,13 @@
       </c>
     </row>
     <row r="280" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A280"/>
-      <c r="B280" s="12">
-        <v>3</v>
-      </c>
-      <c r="C280" s="15">
+      <c r="A280" s="9">
+        <v>276</v>
+      </c>
+      <c r="B280" s="11">
+        <v>3</v>
+      </c>
+      <c r="C280" s="14">
         <v>102</v>
       </c>
       <c r="D280" s="1">
@@ -5889,11 +6188,13 @@
       </c>
     </row>
     <row r="281" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A281"/>
-      <c r="B281" s="12">
-        <v>3</v>
-      </c>
-      <c r="C281" s="15">
+      <c r="A281" s="9">
+        <v>277</v>
+      </c>
+      <c r="B281" s="11">
+        <v>3</v>
+      </c>
+      <c r="C281" s="14">
         <v>102</v>
       </c>
       <c r="D281" s="1">
@@ -5907,11 +6208,13 @@
       </c>
     </row>
     <row r="282" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A282"/>
-      <c r="B282" s="12">
-        <v>3</v>
-      </c>
-      <c r="C282" s="15">
+      <c r="A282" s="9">
+        <v>278</v>
+      </c>
+      <c r="B282" s="11">
+        <v>3</v>
+      </c>
+      <c r="C282" s="14">
         <v>102</v>
       </c>
       <c r="D282" s="1">
@@ -5925,11 +6228,13 @@
       </c>
     </row>
     <row r="283" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A283"/>
-      <c r="B283" s="12">
-        <v>3</v>
-      </c>
-      <c r="C283" s="15">
+      <c r="A283" s="9">
+        <v>279</v>
+      </c>
+      <c r="B283" s="11">
+        <v>3</v>
+      </c>
+      <c r="C283" s="14">
         <v>102</v>
       </c>
       <c r="D283" s="1">
@@ -5943,11 +6248,13 @@
       </c>
     </row>
     <row r="284" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A284"/>
-      <c r="B284" s="12">
-        <v>3</v>
-      </c>
-      <c r="C284" s="15">
+      <c r="A284" s="9">
+        <v>280</v>
+      </c>
+      <c r="B284" s="11">
+        <v>3</v>
+      </c>
+      <c r="C284" s="14">
         <v>102</v>
       </c>
       <c r="D284" s="1">
@@ -5961,11 +6268,13 @@
       </c>
     </row>
     <row r="285" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A285"/>
-      <c r="B285" s="12">
-        <v>3</v>
-      </c>
-      <c r="C285" s="15">
+      <c r="A285" s="9">
+        <v>281</v>
+      </c>
+      <c r="B285" s="11">
+        <v>3</v>
+      </c>
+      <c r="C285" s="14">
         <v>102</v>
       </c>
       <c r="D285" s="1">
@@ -5979,11 +6288,13 @@
       </c>
     </row>
     <row r="286" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A286"/>
-      <c r="B286" s="12">
-        <v>3</v>
-      </c>
-      <c r="C286" s="15">
+      <c r="A286" s="9">
+        <v>282</v>
+      </c>
+      <c r="B286" s="11">
+        <v>3</v>
+      </c>
+      <c r="C286" s="14">
         <v>102</v>
       </c>
       <c r="D286" s="1">
@@ -5997,11 +6308,13 @@
       </c>
     </row>
     <row r="287" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A287"/>
-      <c r="B287" s="12">
-        <v>3</v>
-      </c>
-      <c r="C287" s="15">
+      <c r="A287" s="9">
+        <v>283</v>
+      </c>
+      <c r="B287" s="11">
+        <v>3</v>
+      </c>
+      <c r="C287" s="14">
         <v>102</v>
       </c>
       <c r="D287" s="1">
@@ -6015,11 +6328,13 @@
       </c>
     </row>
     <row r="288" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A288"/>
-      <c r="B288" s="12">
-        <v>3</v>
-      </c>
-      <c r="C288" s="15">
+      <c r="A288" s="9">
+        <v>284</v>
+      </c>
+      <c r="B288" s="11">
+        <v>3</v>
+      </c>
+      <c r="C288" s="14">
         <v>102</v>
       </c>
       <c r="D288" s="1">
@@ -6033,11 +6348,13 @@
       </c>
     </row>
     <row r="289" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A289"/>
-      <c r="B289" s="12">
-        <v>3</v>
-      </c>
-      <c r="C289" s="15">
+      <c r="A289" s="9">
+        <v>285</v>
+      </c>
+      <c r="B289" s="11">
+        <v>3</v>
+      </c>
+      <c r="C289" s="14">
         <v>102</v>
       </c>
       <c r="D289" s="1">
@@ -6046,16 +6363,18 @@
       <c r="E289">
         <v>305</v>
       </c>
-      <c r="F289" s="14">
+      <c r="F289" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A290"/>
-      <c r="B290" s="12">
-        <v>3</v>
-      </c>
-      <c r="C290" s="15">
+      <c r="A290" s="9">
+        <v>286</v>
+      </c>
+      <c r="B290" s="11">
+        <v>3</v>
+      </c>
+      <c r="C290" s="14">
         <v>102</v>
       </c>
       <c r="D290" s="1">
@@ -6069,11 +6388,13 @@
       </c>
     </row>
     <row r="291" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A291"/>
-      <c r="B291" s="12">
-        <v>3</v>
-      </c>
-      <c r="C291" s="15">
+      <c r="A291" s="9">
+        <v>287</v>
+      </c>
+      <c r="B291" s="11">
+        <v>3</v>
+      </c>
+      <c r="C291" s="14">
         <v>102</v>
       </c>
       <c r="D291" s="1">
@@ -6087,11 +6408,13 @@
       </c>
     </row>
     <row r="292" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A292"/>
-      <c r="B292" s="12">
-        <v>3</v>
-      </c>
-      <c r="C292" s="15">
+      <c r="A292" s="9">
+        <v>288</v>
+      </c>
+      <c r="B292" s="11">
+        <v>3</v>
+      </c>
+      <c r="C292" s="14">
         <v>102</v>
       </c>
       <c r="D292" s="1">
@@ -6105,11 +6428,13 @@
       </c>
     </row>
     <row r="293" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A293"/>
-      <c r="B293" s="12">
-        <v>3</v>
-      </c>
-      <c r="C293" s="15">
+      <c r="A293" s="9">
+        <v>289</v>
+      </c>
+      <c r="B293" s="11">
+        <v>3</v>
+      </c>
+      <c r="C293" s="14">
         <v>102</v>
       </c>
       <c r="D293" s="1">
@@ -6123,11 +6448,13 @@
       </c>
     </row>
     <row r="294" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A294"/>
-      <c r="B294" s="12">
-        <v>3</v>
-      </c>
-      <c r="C294" s="15">
+      <c r="A294" s="9">
+        <v>290</v>
+      </c>
+      <c r="B294" s="11">
+        <v>3</v>
+      </c>
+      <c r="C294" s="14">
         <v>102</v>
       </c>
       <c r="D294" s="1">
@@ -6141,14 +6468,16 @@
       </c>
     </row>
     <row r="295" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A295"/>
-      <c r="B295" s="12">
-        <v>3</v>
-      </c>
-      <c r="C295" s="15">
+      <c r="A295" s="9">
+        <v>291</v>
+      </c>
+      <c r="B295" s="11">
+        <v>3</v>
+      </c>
+      <c r="C295" s="14">
         <v>102</v>
       </c>
-      <c r="D295" s="11">
+      <c r="D295" s="10">
         <v>204</v>
       </c>
       <c r="E295">
@@ -6159,14 +6488,16 @@
       </c>
     </row>
     <row r="296" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A296"/>
-      <c r="B296" s="12">
-        <v>3</v>
-      </c>
-      <c r="C296" s="15">
+      <c r="A296" s="9">
+        <v>292</v>
+      </c>
+      <c r="B296" s="11">
+        <v>3</v>
+      </c>
+      <c r="C296" s="14">
         <v>102</v>
       </c>
-      <c r="D296" s="11">
+      <c r="D296" s="10">
         <v>204</v>
       </c>
       <c r="E296">
@@ -6177,14 +6508,16 @@
       </c>
     </row>
     <row r="297" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A297"/>
-      <c r="B297" s="12">
-        <v>3</v>
-      </c>
-      <c r="C297" s="15">
+      <c r="A297" s="9">
+        <v>293</v>
+      </c>
+      <c r="B297" s="11">
+        <v>3</v>
+      </c>
+      <c r="C297" s="14">
         <v>102</v>
       </c>
-      <c r="D297" s="11">
+      <c r="D297" s="10">
         <v>204</v>
       </c>
       <c r="E297">
@@ -6195,14 +6528,16 @@
       </c>
     </row>
     <row r="298" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A298"/>
-      <c r="B298" s="12">
-        <v>3</v>
-      </c>
-      <c r="C298" s="15">
+      <c r="A298" s="9">
+        <v>294</v>
+      </c>
+      <c r="B298" s="11">
+        <v>3</v>
+      </c>
+      <c r="C298" s="14">
         <v>102</v>
       </c>
-      <c r="D298" s="11">
+      <c r="D298" s="10">
         <v>204</v>
       </c>
       <c r="E298">
@@ -6213,14 +6548,16 @@
       </c>
     </row>
     <row r="299" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A299"/>
-      <c r="B299" s="12">
-        <v>3</v>
-      </c>
-      <c r="C299" s="15">
+      <c r="A299" s="9">
+        <v>295</v>
+      </c>
+      <c r="B299" s="11">
+        <v>3</v>
+      </c>
+      <c r="C299" s="14">
         <v>102</v>
       </c>
-      <c r="D299" s="11">
+      <c r="D299" s="10">
         <v>204</v>
       </c>
       <c r="E299">
@@ -6231,14 +6568,16 @@
       </c>
     </row>
     <row r="300" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A300"/>
-      <c r="B300" s="12">
-        <v>3</v>
-      </c>
-      <c r="C300" s="15">
+      <c r="A300" s="9">
+        <v>296</v>
+      </c>
+      <c r="B300" s="11">
+        <v>3</v>
+      </c>
+      <c r="C300" s="14">
         <v>102</v>
       </c>
-      <c r="D300" s="11">
+      <c r="D300" s="10">
         <v>205</v>
       </c>
       <c r="E300">
@@ -6249,14 +6588,16 @@
       </c>
     </row>
     <row r="301" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A301"/>
-      <c r="B301" s="12">
-        <v>3</v>
-      </c>
-      <c r="C301" s="15">
+      <c r="A301" s="9">
+        <v>297</v>
+      </c>
+      <c r="B301" s="11">
+        <v>3</v>
+      </c>
+      <c r="C301" s="14">
         <v>102</v>
       </c>
-      <c r="D301" s="11">
+      <c r="D301" s="10">
         <v>205</v>
       </c>
       <c r="E301">
@@ -6267,14 +6608,16 @@
       </c>
     </row>
     <row r="302" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A302"/>
-      <c r="B302" s="12">
-        <v>3</v>
-      </c>
-      <c r="C302" s="15">
+      <c r="A302" s="9">
+        <v>298</v>
+      </c>
+      <c r="B302" s="11">
+        <v>3</v>
+      </c>
+      <c r="C302" s="14">
         <v>102</v>
       </c>
-      <c r="D302" s="11">
+      <c r="D302" s="10">
         <v>205</v>
       </c>
       <c r="E302">
@@ -6285,14 +6628,16 @@
       </c>
     </row>
     <row r="303" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A303"/>
-      <c r="B303" s="12">
-        <v>3</v>
-      </c>
-      <c r="C303" s="15">
+      <c r="A303" s="9">
+        <v>299</v>
+      </c>
+      <c r="B303" s="11">
+        <v>3</v>
+      </c>
+      <c r="C303" s="14">
         <v>102</v>
       </c>
-      <c r="D303" s="11">
+      <c r="D303" s="10">
         <v>205</v>
       </c>
       <c r="E303">
@@ -6303,14 +6648,16 @@
       </c>
     </row>
     <row r="304" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A304"/>
-      <c r="B304" s="12">
-        <v>3</v>
-      </c>
-      <c r="C304" s="15">
+      <c r="A304" s="9">
+        <v>300</v>
+      </c>
+      <c r="B304" s="11">
+        <v>3</v>
+      </c>
+      <c r="C304" s="14">
         <v>102</v>
       </c>
-      <c r="D304" s="11">
+      <c r="D304" s="10">
         <v>205</v>
       </c>
       <c r="E304">
@@ -6321,11 +6668,13 @@
       </c>
     </row>
     <row r="305" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A305"/>
-      <c r="B305" s="12">
-        <v>3</v>
-      </c>
-      <c r="C305" s="15">
+      <c r="A305" s="9">
+        <v>301</v>
+      </c>
+      <c r="B305" s="11">
+        <v>3</v>
+      </c>
+      <c r="C305" s="14">
         <v>103</v>
       </c>
       <c r="D305" s="1">
@@ -6339,11 +6688,13 @@
       </c>
     </row>
     <row r="306" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A306"/>
-      <c r="B306" s="12">
-        <v>3</v>
-      </c>
-      <c r="C306" s="15">
+      <c r="A306" s="9">
+        <v>302</v>
+      </c>
+      <c r="B306" s="11">
+        <v>3</v>
+      </c>
+      <c r="C306" s="14">
         <v>103</v>
       </c>
       <c r="D306" s="1">
@@ -6357,11 +6708,13 @@
       </c>
     </row>
     <row r="307" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A307"/>
-      <c r="B307" s="12">
-        <v>3</v>
-      </c>
-      <c r="C307" s="15">
+      <c r="A307" s="9">
+        <v>303</v>
+      </c>
+      <c r="B307" s="11">
+        <v>3</v>
+      </c>
+      <c r="C307" s="14">
         <v>103</v>
       </c>
       <c r="D307" s="1">
@@ -6375,11 +6728,13 @@
       </c>
     </row>
     <row r="308" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A308"/>
-      <c r="B308" s="12">
-        <v>3</v>
-      </c>
-      <c r="C308" s="15">
+      <c r="A308" s="9">
+        <v>304</v>
+      </c>
+      <c r="B308" s="11">
+        <v>3</v>
+      </c>
+      <c r="C308" s="14">
         <v>103</v>
       </c>
       <c r="D308" s="1">
@@ -6388,16 +6743,18 @@
       <c r="E308">
         <v>304</v>
       </c>
-      <c r="F308" s="14">
+      <c r="F308" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A309"/>
-      <c r="B309" s="12">
-        <v>3</v>
-      </c>
-      <c r="C309" s="15">
+      <c r="A309" s="9">
+        <v>305</v>
+      </c>
+      <c r="B309" s="11">
+        <v>3</v>
+      </c>
+      <c r="C309" s="14">
         <v>103</v>
       </c>
       <c r="D309" s="1">
@@ -6411,11 +6768,13 @@
       </c>
     </row>
     <row r="310" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A310"/>
-      <c r="B310" s="12">
-        <v>3</v>
-      </c>
-      <c r="C310" s="15">
+      <c r="A310" s="9">
+        <v>306</v>
+      </c>
+      <c r="B310" s="11">
+        <v>3</v>
+      </c>
+      <c r="C310" s="14">
         <v>103</v>
       </c>
       <c r="D310" s="1">
@@ -6429,11 +6788,13 @@
       </c>
     </row>
     <row r="311" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A311"/>
-      <c r="B311" s="12">
-        <v>3</v>
-      </c>
-      <c r="C311" s="15">
+      <c r="A311" s="9">
+        <v>307</v>
+      </c>
+      <c r="B311" s="11">
+        <v>3</v>
+      </c>
+      <c r="C311" s="14">
         <v>103</v>
       </c>
       <c r="D311" s="1">
@@ -6447,11 +6808,13 @@
       </c>
     </row>
     <row r="312" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A312"/>
-      <c r="B312" s="12">
-        <v>3</v>
-      </c>
-      <c r="C312" s="15">
+      <c r="A312" s="9">
+        <v>308</v>
+      </c>
+      <c r="B312" s="11">
+        <v>3</v>
+      </c>
+      <c r="C312" s="14">
         <v>103</v>
       </c>
       <c r="D312" s="1">
@@ -6465,11 +6828,13 @@
       </c>
     </row>
     <row r="313" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A313"/>
-      <c r="B313" s="12">
-        <v>3</v>
-      </c>
-      <c r="C313" s="15">
+      <c r="A313" s="9">
+        <v>309</v>
+      </c>
+      <c r="B313" s="11">
+        <v>3</v>
+      </c>
+      <c r="C313" s="14">
         <v>103</v>
       </c>
       <c r="D313" s="1">
@@ -6483,11 +6848,13 @@
       </c>
     </row>
     <row r="314" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A314"/>
-      <c r="B314" s="12">
-        <v>3</v>
-      </c>
-      <c r="C314" s="15">
+      <c r="A314" s="9">
+        <v>310</v>
+      </c>
+      <c r="B314" s="11">
+        <v>3</v>
+      </c>
+      <c r="C314" s="14">
         <v>103</v>
       </c>
       <c r="D314" s="1">
@@ -6501,11 +6868,13 @@
       </c>
     </row>
     <row r="315" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A315"/>
-      <c r="B315" s="12">
-        <v>3</v>
-      </c>
-      <c r="C315" s="15">
+      <c r="A315" s="9">
+        <v>311</v>
+      </c>
+      <c r="B315" s="11">
+        <v>3</v>
+      </c>
+      <c r="C315" s="14">
         <v>103</v>
       </c>
       <c r="D315" s="1">
@@ -6519,11 +6888,13 @@
       </c>
     </row>
     <row r="316" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A316"/>
-      <c r="B316" s="12">
-        <v>3</v>
-      </c>
-      <c r="C316" s="15">
+      <c r="A316" s="9">
+        <v>312</v>
+      </c>
+      <c r="B316" s="11">
+        <v>3</v>
+      </c>
+      <c r="C316" s="14">
         <v>103</v>
       </c>
       <c r="D316" s="1">
@@ -6537,11 +6908,13 @@
       </c>
     </row>
     <row r="317" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A317"/>
-      <c r="B317" s="12">
-        <v>3</v>
-      </c>
-      <c r="C317" s="15">
+      <c r="A317" s="9">
+        <v>313</v>
+      </c>
+      <c r="B317" s="11">
+        <v>3</v>
+      </c>
+      <c r="C317" s="14">
         <v>103</v>
       </c>
       <c r="D317" s="1">
@@ -6555,10 +6928,13 @@
       </c>
     </row>
     <row r="318" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B318" s="12">
-        <v>3</v>
-      </c>
-      <c r="C318" s="15">
+      <c r="A318" s="9">
+        <v>314</v>
+      </c>
+      <c r="B318" s="11">
+        <v>3</v>
+      </c>
+      <c r="C318" s="14">
         <v>103</v>
       </c>
       <c r="D318" s="1">
@@ -6572,10 +6948,13 @@
       </c>
     </row>
     <row r="319" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B319" s="12">
-        <v>3</v>
-      </c>
-      <c r="C319" s="15">
+      <c r="A319" s="9">
+        <v>315</v>
+      </c>
+      <c r="B319" s="11">
+        <v>3</v>
+      </c>
+      <c r="C319" s="14">
         <v>103</v>
       </c>
       <c r="D319" s="1">
@@ -6589,13 +6968,16 @@
       </c>
     </row>
     <row r="320" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B320" s="12">
-        <v>3</v>
-      </c>
-      <c r="C320" s="15">
+      <c r="A320" s="9">
+        <v>316</v>
+      </c>
+      <c r="B320" s="11">
+        <v>3</v>
+      </c>
+      <c r="C320" s="14">
         <v>103</v>
       </c>
-      <c r="D320" s="11">
+      <c r="D320" s="10">
         <v>204</v>
       </c>
       <c r="E320">
@@ -6605,14 +6987,17 @@
         <v>20012</v>
       </c>
     </row>
-    <row r="321" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B321" s="12">
-        <v>3</v>
-      </c>
-      <c r="C321" s="15">
+    <row r="321" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A321" s="9">
+        <v>317</v>
+      </c>
+      <c r="B321" s="11">
+        <v>3</v>
+      </c>
+      <c r="C321" s="14">
         <v>103</v>
       </c>
-      <c r="D321" s="11">
+      <c r="D321" s="10">
         <v>204</v>
       </c>
       <c r="E321">
@@ -6622,14 +7007,17 @@
         <v>20013</v>
       </c>
     </row>
-    <row r="322" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B322" s="12">
-        <v>3</v>
-      </c>
-      <c r="C322" s="15">
+    <row r="322" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A322" s="9">
+        <v>318</v>
+      </c>
+      <c r="B322" s="11">
+        <v>3</v>
+      </c>
+      <c r="C322" s="14">
         <v>103</v>
       </c>
-      <c r="D322" s="11">
+      <c r="D322" s="10">
         <v>204</v>
       </c>
       <c r="E322">
@@ -6639,14 +7027,17 @@
         <v>20014</v>
       </c>
     </row>
-    <row r="323" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B323" s="12">
-        <v>3</v>
-      </c>
-      <c r="C323" s="15">
+    <row r="323" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A323" s="9">
+        <v>319</v>
+      </c>
+      <c r="B323" s="11">
+        <v>3</v>
+      </c>
+      <c r="C323" s="14">
         <v>103</v>
       </c>
-      <c r="D323" s="11">
+      <c r="D323" s="10">
         <v>204</v>
       </c>
       <c r="E323">
@@ -6656,14 +7047,17 @@
         <v>20015</v>
       </c>
     </row>
-    <row r="324" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B324" s="12">
-        <v>3</v>
-      </c>
-      <c r="C324" s="15">
+    <row r="324" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A324" s="9">
+        <v>320</v>
+      </c>
+      <c r="B324" s="11">
+        <v>3</v>
+      </c>
+      <c r="C324" s="14">
         <v>103</v>
       </c>
-      <c r="D324" s="11">
+      <c r="D324" s="10">
         <v>204</v>
       </c>
       <c r="E324">
@@ -6673,14 +7067,17 @@
         <v>20016</v>
       </c>
     </row>
-    <row r="325" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B325" s="12">
-        <v>3</v>
-      </c>
-      <c r="C325" s="15">
+    <row r="325" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A325" s="9">
+        <v>321</v>
+      </c>
+      <c r="B325" s="11">
+        <v>3</v>
+      </c>
+      <c r="C325" s="14">
         <v>103</v>
       </c>
-      <c r="D325" s="11">
+      <c r="D325" s="10">
         <v>205</v>
       </c>
       <c r="E325">
@@ -6690,14 +7087,17 @@
         <v>20017</v>
       </c>
     </row>
-    <row r="326" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B326" s="12">
-        <v>3</v>
-      </c>
-      <c r="C326" s="15">
+    <row r="326" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A326" s="9">
+        <v>322</v>
+      </c>
+      <c r="B326" s="11">
+        <v>3</v>
+      </c>
+      <c r="C326" s="14">
         <v>103</v>
       </c>
-      <c r="D326" s="11">
+      <c r="D326" s="10">
         <v>205</v>
       </c>
       <c r="E326">
@@ -6707,31 +7107,37 @@
         <v>20018</v>
       </c>
     </row>
-    <row r="327" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B327" s="12">
-        <v>3</v>
-      </c>
-      <c r="C327" s="15">
+    <row r="327" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A327" s="9">
+        <v>323</v>
+      </c>
+      <c r="B327" s="11">
+        <v>3</v>
+      </c>
+      <c r="C327" s="14">
         <v>103</v>
       </c>
-      <c r="D327" s="11">
+      <c r="D327" s="10">
         <v>205</v>
       </c>
       <c r="E327">
         <v>303</v>
       </c>
-      <c r="F327" s="14">
+      <c r="F327" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B328" s="12">
-        <v>3</v>
-      </c>
-      <c r="C328" s="15">
+    <row r="328" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A328" s="9">
+        <v>324</v>
+      </c>
+      <c r="B328" s="11">
+        <v>3</v>
+      </c>
+      <c r="C328" s="14">
         <v>103</v>
       </c>
-      <c r="D328" s="11">
+      <c r="D328" s="10">
         <v>205</v>
       </c>
       <c r="E328">
@@ -6741,14 +7147,17 @@
         <v>20001</v>
       </c>
     </row>
-    <row r="329" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B329" s="12">
-        <v>3</v>
-      </c>
-      <c r="C329" s="15">
+    <row r="329" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A329" s="9">
+        <v>325</v>
+      </c>
+      <c r="B329" s="11">
+        <v>3</v>
+      </c>
+      <c r="C329" s="14">
         <v>103</v>
       </c>
-      <c r="D329" s="11">
+      <c r="D329" s="10">
         <v>205</v>
       </c>
       <c r="E329">
@@ -6758,11 +7167,14 @@
         <v>20002</v>
       </c>
     </row>
-    <row r="330" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B330" s="12">
-        <v>3</v>
-      </c>
-      <c r="C330" s="15">
+    <row r="330" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A330" s="9">
+        <v>326</v>
+      </c>
+      <c r="B330" s="11">
+        <v>3</v>
+      </c>
+      <c r="C330" s="14">
         <v>104</v>
       </c>
       <c r="D330" s="1">
@@ -6775,11 +7187,14 @@
         <v>20003</v>
       </c>
     </row>
-    <row r="331" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B331" s="12">
-        <v>3</v>
-      </c>
-      <c r="C331" s="15">
+    <row r="331" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A331" s="9">
+        <v>327</v>
+      </c>
+      <c r="B331" s="11">
+        <v>3</v>
+      </c>
+      <c r="C331" s="14">
         <v>104</v>
       </c>
       <c r="D331" s="1">
@@ -6792,11 +7207,14 @@
         <v>20004</v>
       </c>
     </row>
-    <row r="332" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B332" s="12">
-        <v>3</v>
-      </c>
-      <c r="C332" s="15">
+    <row r="332" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A332" s="9">
+        <v>328</v>
+      </c>
+      <c r="B332" s="11">
+        <v>3</v>
+      </c>
+      <c r="C332" s="14">
         <v>104</v>
       </c>
       <c r="D332" s="1">
@@ -6809,11 +7227,14 @@
         <v>20005</v>
       </c>
     </row>
-    <row r="333" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B333" s="12">
-        <v>3</v>
-      </c>
-      <c r="C333" s="15">
+    <row r="333" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A333" s="9">
+        <v>329</v>
+      </c>
+      <c r="B333" s="11">
+        <v>3</v>
+      </c>
+      <c r="C333" s="14">
         <v>104</v>
       </c>
       <c r="D333" s="1">
@@ -6826,11 +7247,14 @@
         <v>20006</v>
       </c>
     </row>
-    <row r="334" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B334" s="12">
-        <v>3</v>
-      </c>
-      <c r="C334" s="15">
+    <row r="334" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A334" s="9">
+        <v>330</v>
+      </c>
+      <c r="B334" s="11">
+        <v>3</v>
+      </c>
+      <c r="C334" s="14">
         <v>104</v>
       </c>
       <c r="D334" s="1">
@@ -6843,11 +7267,14 @@
         <v>20007</v>
       </c>
     </row>
-    <row r="335" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B335" s="12">
-        <v>3</v>
-      </c>
-      <c r="C335" s="15">
+    <row r="335" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A335" s="9">
+        <v>331</v>
+      </c>
+      <c r="B335" s="11">
+        <v>3</v>
+      </c>
+      <c r="C335" s="14">
         <v>104</v>
       </c>
       <c r="D335" s="1">
@@ -6860,11 +7287,14 @@
         <v>20008</v>
       </c>
     </row>
-    <row r="336" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B336" s="12">
-        <v>3</v>
-      </c>
-      <c r="C336" s="15">
+    <row r="336" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A336" s="9">
+        <v>332</v>
+      </c>
+      <c r="B336" s="11">
+        <v>3</v>
+      </c>
+      <c r="C336" s="14">
         <v>104</v>
       </c>
       <c r="D336" s="1">
@@ -6877,11 +7307,14 @@
         <v>20009</v>
       </c>
     </row>
-    <row r="337" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B337" s="12">
-        <v>3</v>
-      </c>
-      <c r="C337" s="15">
+    <row r="337" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A337" s="9">
+        <v>333</v>
+      </c>
+      <c r="B337" s="11">
+        <v>3</v>
+      </c>
+      <c r="C337" s="14">
         <v>104</v>
       </c>
       <c r="D337" s="1">
@@ -6894,11 +7327,14 @@
         <v>20010</v>
       </c>
     </row>
-    <row r="338" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B338" s="12">
-        <v>3</v>
-      </c>
-      <c r="C338" s="15">
+    <row r="338" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A338" s="9">
+        <v>334</v>
+      </c>
+      <c r="B338" s="11">
+        <v>3</v>
+      </c>
+      <c r="C338" s="14">
         <v>104</v>
       </c>
       <c r="D338" s="1">
@@ -6911,11 +7347,14 @@
         <v>20011</v>
       </c>
     </row>
-    <row r="339" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B339" s="12">
-        <v>3</v>
-      </c>
-      <c r="C339" s="15">
+    <row r="339" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A339" s="9">
+        <v>335</v>
+      </c>
+      <c r="B339" s="11">
+        <v>3</v>
+      </c>
+      <c r="C339" s="14">
         <v>104</v>
       </c>
       <c r="D339" s="1">
@@ -6928,11 +7367,14 @@
         <v>20012</v>
       </c>
     </row>
-    <row r="340" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B340" s="12">
-        <v>3</v>
-      </c>
-      <c r="C340" s="15">
+    <row r="340" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A340" s="9">
+        <v>336</v>
+      </c>
+      <c r="B340" s="11">
+        <v>3</v>
+      </c>
+      <c r="C340" s="14">
         <v>104</v>
       </c>
       <c r="D340" s="1">
@@ -6945,11 +7387,14 @@
         <v>20013</v>
       </c>
     </row>
-    <row r="341" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B341" s="12">
-        <v>3</v>
-      </c>
-      <c r="C341" s="15">
+    <row r="341" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A341" s="9">
+        <v>337</v>
+      </c>
+      <c r="B341" s="11">
+        <v>3</v>
+      </c>
+      <c r="C341" s="14">
         <v>104</v>
       </c>
       <c r="D341" s="1">
@@ -6962,11 +7407,14 @@
         <v>20014</v>
       </c>
     </row>
-    <row r="342" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B342" s="12">
-        <v>3</v>
-      </c>
-      <c r="C342" s="15">
+    <row r="342" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A342" s="9">
+        <v>338</v>
+      </c>
+      <c r="B342" s="11">
+        <v>3</v>
+      </c>
+      <c r="C342" s="14">
         <v>104</v>
       </c>
       <c r="D342" s="1">
@@ -6979,11 +7427,14 @@
         <v>20015</v>
       </c>
     </row>
-    <row r="343" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B343" s="12">
-        <v>3</v>
-      </c>
-      <c r="C343" s="15">
+    <row r="343" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A343" s="9">
+        <v>339</v>
+      </c>
+      <c r="B343" s="11">
+        <v>3</v>
+      </c>
+      <c r="C343" s="14">
         <v>104</v>
       </c>
       <c r="D343" s="1">
@@ -6996,11 +7447,14 @@
         <v>20016</v>
       </c>
     </row>
-    <row r="344" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B344" s="12">
-        <v>3</v>
-      </c>
-      <c r="C344" s="15">
+    <row r="344" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A344" s="9">
+        <v>340</v>
+      </c>
+      <c r="B344" s="11">
+        <v>3</v>
+      </c>
+      <c r="C344" s="14">
         <v>104</v>
       </c>
       <c r="D344" s="1">
@@ -7013,14 +7467,17 @@
         <v>20017</v>
       </c>
     </row>
-    <row r="345" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B345" s="12">
-        <v>3</v>
-      </c>
-      <c r="C345" s="15">
+    <row r="345" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A345" s="9">
+        <v>341</v>
+      </c>
+      <c r="B345" s="11">
+        <v>3</v>
+      </c>
+      <c r="C345" s="14">
         <v>104</v>
       </c>
-      <c r="D345" s="11">
+      <c r="D345" s="10">
         <v>204</v>
       </c>
       <c r="E345">
@@ -7030,31 +7487,37 @@
         <v>20018</v>
       </c>
     </row>
-    <row r="346" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B346" s="12">
-        <v>3</v>
-      </c>
-      <c r="C346" s="15">
+    <row r="346" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A346" s="9">
+        <v>342</v>
+      </c>
+      <c r="B346" s="11">
+        <v>3</v>
+      </c>
+      <c r="C346" s="14">
         <v>104</v>
       </c>
-      <c r="D346" s="11">
+      <c r="D346" s="10">
         <v>204</v>
       </c>
       <c r="E346">
         <v>302</v>
       </c>
-      <c r="F346" s="14">
+      <c r="F346" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B347" s="12">
-        <v>3</v>
-      </c>
-      <c r="C347" s="15">
+    <row r="347" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A347" s="9">
+        <v>343</v>
+      </c>
+      <c r="B347" s="11">
+        <v>3</v>
+      </c>
+      <c r="C347" s="14">
         <v>104</v>
       </c>
-      <c r="D347" s="11">
+      <c r="D347" s="10">
         <v>204</v>
       </c>
       <c r="E347">
@@ -7064,14 +7527,17 @@
         <v>20001</v>
       </c>
     </row>
-    <row r="348" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B348" s="12">
-        <v>3</v>
-      </c>
-      <c r="C348" s="15">
+    <row r="348" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A348" s="9">
+        <v>344</v>
+      </c>
+      <c r="B348" s="11">
+        <v>3</v>
+      </c>
+      <c r="C348" s="14">
         <v>104</v>
       </c>
-      <c r="D348" s="11">
+      <c r="D348" s="10">
         <v>204</v>
       </c>
       <c r="E348">
@@ -7081,14 +7547,17 @@
         <v>20002</v>
       </c>
     </row>
-    <row r="349" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B349" s="12">
-        <v>3</v>
-      </c>
-      <c r="C349" s="15">
+    <row r="349" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A349" s="9">
+        <v>345</v>
+      </c>
+      <c r="B349" s="11">
+        <v>3</v>
+      </c>
+      <c r="C349" s="14">
         <v>104</v>
       </c>
-      <c r="D349" s="11">
+      <c r="D349" s="10">
         <v>204</v>
       </c>
       <c r="E349">
@@ -7098,14 +7567,17 @@
         <v>20003</v>
       </c>
     </row>
-    <row r="350" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B350" s="12">
-        <v>3</v>
-      </c>
-      <c r="C350" s="15">
+    <row r="350" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A350" s="9">
+        <v>346</v>
+      </c>
+      <c r="B350" s="11">
+        <v>3</v>
+      </c>
+      <c r="C350" s="14">
         <v>104</v>
       </c>
-      <c r="D350" s="11">
+      <c r="D350" s="10">
         <v>205</v>
       </c>
       <c r="E350">
@@ -7115,14 +7587,17 @@
         <v>20004</v>
       </c>
     </row>
-    <row r="351" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B351" s="12">
-        <v>3</v>
-      </c>
-      <c r="C351" s="15">
+    <row r="351" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A351" s="9">
+        <v>347</v>
+      </c>
+      <c r="B351" s="11">
+        <v>3</v>
+      </c>
+      <c r="C351" s="14">
         <v>104</v>
       </c>
-      <c r="D351" s="11">
+      <c r="D351" s="10">
         <v>205</v>
       </c>
       <c r="E351">
@@ -7132,14 +7607,17 @@
         <v>20005</v>
       </c>
     </row>
-    <row r="352" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B352" s="12">
-        <v>3</v>
-      </c>
-      <c r="C352" s="15">
+    <row r="352" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A352" s="9">
+        <v>348</v>
+      </c>
+      <c r="B352" s="11">
+        <v>3</v>
+      </c>
+      <c r="C352" s="14">
         <v>104</v>
       </c>
-      <c r="D352" s="11">
+      <c r="D352" s="10">
         <v>205</v>
       </c>
       <c r="E352">
@@ -7149,14 +7627,17 @@
         <v>20006</v>
       </c>
     </row>
-    <row r="353" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B353" s="12">
-        <v>3</v>
-      </c>
-      <c r="C353" s="15">
+    <row r="353" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A353" s="9">
+        <v>349</v>
+      </c>
+      <c r="B353" s="11">
+        <v>3</v>
+      </c>
+      <c r="C353" s="14">
         <v>104</v>
       </c>
-      <c r="D353" s="11">
+      <c r="D353" s="10">
         <v>205</v>
       </c>
       <c r="E353">
@@ -7166,14 +7647,17 @@
         <v>20007</v>
       </c>
     </row>
-    <row r="354" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B354" s="12">
-        <v>3</v>
-      </c>
-      <c r="C354" s="15">
+    <row r="354" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A354" s="9">
+        <v>350</v>
+      </c>
+      <c r="B354" s="11">
+        <v>3</v>
+      </c>
+      <c r="C354" s="14">
         <v>104</v>
       </c>
-      <c r="D354" s="11">
+      <c r="D354" s="10">
         <v>205</v>
       </c>
       <c r="E354">
@@ -7183,11 +7667,14 @@
         <v>20008</v>
       </c>
     </row>
-    <row r="355" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B355" s="12">
-        <v>3</v>
-      </c>
-      <c r="C355" s="15">
+    <row r="355" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A355" s="9">
+        <v>351</v>
+      </c>
+      <c r="B355" s="11">
+        <v>3</v>
+      </c>
+      <c r="C355" s="14">
         <v>105</v>
       </c>
       <c r="D355" s="1">
@@ -7200,11 +7687,14 @@
         <v>20009</v>
       </c>
     </row>
-    <row r="356" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B356" s="12">
-        <v>3</v>
-      </c>
-      <c r="C356" s="15">
+    <row r="356" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A356" s="9">
+        <v>352</v>
+      </c>
+      <c r="B356" s="11">
+        <v>3</v>
+      </c>
+      <c r="C356" s="14">
         <v>105</v>
       </c>
       <c r="D356" s="1">
@@ -7217,11 +7707,14 @@
         <v>20010</v>
       </c>
     </row>
-    <row r="357" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B357" s="12">
-        <v>3</v>
-      </c>
-      <c r="C357" s="15">
+    <row r="357" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A357" s="9">
+        <v>353</v>
+      </c>
+      <c r="B357" s="11">
+        <v>3</v>
+      </c>
+      <c r="C357" s="14">
         <v>105</v>
       </c>
       <c r="D357" s="1">
@@ -7234,11 +7727,14 @@
         <v>20011</v>
       </c>
     </row>
-    <row r="358" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B358" s="12">
-        <v>3</v>
-      </c>
-      <c r="C358" s="15">
+    <row r="358" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A358" s="9">
+        <v>354</v>
+      </c>
+      <c r="B358" s="11">
+        <v>3</v>
+      </c>
+      <c r="C358" s="14">
         <v>105</v>
       </c>
       <c r="D358" s="1">
@@ -7251,11 +7747,14 @@
         <v>20012</v>
       </c>
     </row>
-    <row r="359" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B359" s="12">
-        <v>3</v>
-      </c>
-      <c r="C359" s="15">
+    <row r="359" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A359" s="9">
+        <v>355</v>
+      </c>
+      <c r="B359" s="11">
+        <v>3</v>
+      </c>
+      <c r="C359" s="14">
         <v>105</v>
       </c>
       <c r="D359" s="1">
@@ -7268,11 +7767,14 @@
         <v>20013</v>
       </c>
     </row>
-    <row r="360" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B360" s="12">
-        <v>3</v>
-      </c>
-      <c r="C360" s="15">
+    <row r="360" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A360" s="9">
+        <v>356</v>
+      </c>
+      <c r="B360" s="11">
+        <v>3</v>
+      </c>
+      <c r="C360" s="14">
         <v>105</v>
       </c>
       <c r="D360" s="1">
@@ -7285,11 +7787,14 @@
         <v>20014</v>
       </c>
     </row>
-    <row r="361" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B361" s="12">
-        <v>3</v>
-      </c>
-      <c r="C361" s="15">
+    <row r="361" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A361" s="9">
+        <v>357</v>
+      </c>
+      <c r="B361" s="11">
+        <v>3</v>
+      </c>
+      <c r="C361" s="14">
         <v>105</v>
       </c>
       <c r="D361" s="1">
@@ -7302,11 +7807,14 @@
         <v>20015</v>
       </c>
     </row>
-    <row r="362" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B362" s="12">
-        <v>3</v>
-      </c>
-      <c r="C362" s="15">
+    <row r="362" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A362" s="9">
+        <v>358</v>
+      </c>
+      <c r="B362" s="11">
+        <v>3</v>
+      </c>
+      <c r="C362" s="14">
         <v>105</v>
       </c>
       <c r="D362" s="1">
@@ -7319,11 +7827,14 @@
         <v>20016</v>
       </c>
     </row>
-    <row r="363" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B363" s="12">
-        <v>3</v>
-      </c>
-      <c r="C363" s="15">
+    <row r="363" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A363" s="9">
+        <v>359</v>
+      </c>
+      <c r="B363" s="11">
+        <v>3</v>
+      </c>
+      <c r="C363" s="14">
         <v>105</v>
       </c>
       <c r="D363" s="1">
@@ -7336,11 +7847,14 @@
         <v>20017</v>
       </c>
     </row>
-    <row r="364" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B364" s="12">
-        <v>3</v>
-      </c>
-      <c r="C364" s="15">
+    <row r="364" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A364" s="9">
+        <v>360</v>
+      </c>
+      <c r="B364" s="11">
+        <v>3</v>
+      </c>
+      <c r="C364" s="14">
         <v>105</v>
       </c>
       <c r="D364" s="1">
@@ -7353,11 +7867,14 @@
         <v>20018</v>
       </c>
     </row>
-    <row r="365" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B365" s="12">
-        <v>3</v>
-      </c>
-      <c r="C365" s="15">
+    <row r="365" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A365" s="9">
+        <v>361</v>
+      </c>
+      <c r="B365" s="11">
+        <v>3</v>
+      </c>
+      <c r="C365" s="14">
         <v>105</v>
       </c>
       <c r="D365" s="1">
@@ -7366,15 +7883,18 @@
       <c r="E365">
         <v>301</v>
       </c>
-      <c r="F365" s="14">
+      <c r="F365" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B366" s="12">
-        <v>3</v>
-      </c>
-      <c r="C366" s="15">
+    <row r="366" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A366" s="9">
+        <v>362</v>
+      </c>
+      <c r="B366" s="11">
+        <v>3</v>
+      </c>
+      <c r="C366" s="14">
         <v>105</v>
       </c>
       <c r="D366" s="1">
@@ -7387,11 +7907,14 @@
         <v>20001</v>
       </c>
     </row>
-    <row r="367" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B367" s="12">
-        <v>3</v>
-      </c>
-      <c r="C367" s="15">
+    <row r="367" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A367" s="9">
+        <v>363</v>
+      </c>
+      <c r="B367" s="11">
+        <v>3</v>
+      </c>
+      <c r="C367" s="14">
         <v>105</v>
       </c>
       <c r="D367" s="1">
@@ -7404,11 +7927,14 @@
         <v>20002</v>
       </c>
     </row>
-    <row r="368" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B368" s="12">
-        <v>3</v>
-      </c>
-      <c r="C368" s="15">
+    <row r="368" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A368" s="9">
+        <v>364</v>
+      </c>
+      <c r="B368" s="11">
+        <v>3</v>
+      </c>
+      <c r="C368" s="14">
         <v>105</v>
       </c>
       <c r="D368" s="1">
@@ -7421,11 +7947,14 @@
         <v>20003</v>
       </c>
     </row>
-    <row r="369" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B369" s="12">
-        <v>3</v>
-      </c>
-      <c r="C369" s="15">
+    <row r="369" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A369" s="9">
+        <v>365</v>
+      </c>
+      <c r="B369" s="11">
+        <v>3</v>
+      </c>
+      <c r="C369" s="14">
         <v>105</v>
       </c>
       <c r="D369" s="1">
@@ -7438,14 +7967,17 @@
         <v>20004</v>
       </c>
     </row>
-    <row r="370" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B370" s="12">
-        <v>3</v>
-      </c>
-      <c r="C370" s="15">
+    <row r="370" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A370" s="9">
+        <v>366</v>
+      </c>
+      <c r="B370" s="11">
+        <v>3</v>
+      </c>
+      <c r="C370" s="14">
         <v>105</v>
       </c>
-      <c r="D370" s="11">
+      <c r="D370" s="10">
         <v>204</v>
       </c>
       <c r="E370">
@@ -7455,14 +7987,17 @@
         <v>20005</v>
       </c>
     </row>
-    <row r="371" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B371" s="12">
-        <v>3</v>
-      </c>
-      <c r="C371" s="15">
+    <row r="371" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A371" s="9">
+        <v>367</v>
+      </c>
+      <c r="B371" s="11">
+        <v>3</v>
+      </c>
+      <c r="C371" s="14">
         <v>105</v>
       </c>
-      <c r="D371" s="11">
+      <c r="D371" s="10">
         <v>204</v>
       </c>
       <c r="E371">
@@ -7472,14 +8007,17 @@
         <v>20006</v>
       </c>
     </row>
-    <row r="372" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B372" s="12">
-        <v>3</v>
-      </c>
-      <c r="C372" s="15">
+    <row r="372" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A372" s="9">
+        <v>368</v>
+      </c>
+      <c r="B372" s="11">
+        <v>3</v>
+      </c>
+      <c r="C372" s="14">
         <v>105</v>
       </c>
-      <c r="D372" s="11">
+      <c r="D372" s="10">
         <v>204</v>
       </c>
       <c r="E372">
@@ -7489,14 +8027,17 @@
         <v>20007</v>
       </c>
     </row>
-    <row r="373" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B373" s="12">
-        <v>3</v>
-      </c>
-      <c r="C373" s="15">
+    <row r="373" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A373" s="9">
+        <v>369</v>
+      </c>
+      <c r="B373" s="11">
+        <v>3</v>
+      </c>
+      <c r="C373" s="14">
         <v>105</v>
       </c>
-      <c r="D373" s="11">
+      <c r="D373" s="10">
         <v>204</v>
       </c>
       <c r="E373">
@@ -7506,14 +8047,17 @@
         <v>20008</v>
       </c>
     </row>
-    <row r="374" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B374" s="12">
-        <v>3</v>
-      </c>
-      <c r="C374" s="15">
+    <row r="374" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A374" s="9">
+        <v>370</v>
+      </c>
+      <c r="B374" s="11">
+        <v>3</v>
+      </c>
+      <c r="C374" s="14">
         <v>105</v>
       </c>
-      <c r="D374" s="11">
+      <c r="D374" s="10">
         <v>204</v>
       </c>
       <c r="E374">
@@ -7523,14 +8067,17 @@
         <v>20009</v>
       </c>
     </row>
-    <row r="375" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B375" s="12">
-        <v>3</v>
-      </c>
-      <c r="C375" s="15">
+    <row r="375" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A375" s="9">
+        <v>371</v>
+      </c>
+      <c r="B375" s="11">
+        <v>3</v>
+      </c>
+      <c r="C375" s="14">
         <v>105</v>
       </c>
-      <c r="D375" s="11">
+      <c r="D375" s="10">
         <v>205</v>
       </c>
       <c r="E375">
@@ -7540,14 +8087,17 @@
         <v>20010</v>
       </c>
     </row>
-    <row r="376" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B376" s="12">
-        <v>3</v>
-      </c>
-      <c r="C376" s="15">
+    <row r="376" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A376" s="9">
+        <v>372</v>
+      </c>
+      <c r="B376" s="11">
+        <v>3</v>
+      </c>
+      <c r="C376" s="14">
         <v>105</v>
       </c>
-      <c r="D376" s="11">
+      <c r="D376" s="10">
         <v>205</v>
       </c>
       <c r="E376">
@@ -7557,14 +8107,17 @@
         <v>20011</v>
       </c>
     </row>
-    <row r="377" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B377" s="12">
-        <v>3</v>
-      </c>
-      <c r="C377" s="15">
+    <row r="377" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A377" s="9">
+        <v>373</v>
+      </c>
+      <c r="B377" s="11">
+        <v>3</v>
+      </c>
+      <c r="C377" s="14">
         <v>105</v>
       </c>
-      <c r="D377" s="11">
+      <c r="D377" s="10">
         <v>205</v>
       </c>
       <c r="E377">
@@ -7574,14 +8127,17 @@
         <v>20012</v>
       </c>
     </row>
-    <row r="378" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B378" s="12">
-        <v>3</v>
-      </c>
-      <c r="C378" s="15">
+    <row r="378" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A378" s="9">
+        <v>374</v>
+      </c>
+      <c r="B378" s="11">
+        <v>3</v>
+      </c>
+      <c r="C378" s="14">
         <v>105</v>
       </c>
-      <c r="D378" s="11">
+      <c r="D378" s="10">
         <v>205</v>
       </c>
       <c r="E378">
@@ -7591,14 +8147,17 @@
         <v>20013</v>
       </c>
     </row>
-    <row r="379" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B379" s="12">
-        <v>3</v>
-      </c>
-      <c r="C379" s="15">
+    <row r="379" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A379" s="9">
+        <v>375</v>
+      </c>
+      <c r="B379" s="11">
+        <v>3</v>
+      </c>
+      <c r="C379" s="14">
         <v>105</v>
       </c>
-      <c r="D379" s="11">
+      <c r="D379" s="10">
         <v>205</v>
       </c>
       <c r="E379">
@@ -7608,11 +8167,11 @@
         <v>20014</v>
       </c>
     </row>
-    <row r="384" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="F384" s="14"/>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F384" s="13"/>
     </row>
     <row r="387" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F387" s="14"/>
+      <c r="F387" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/docs/excel/DateReward.xlsx
+++ b/docs/excel/DateReward.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="65">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -111,12 +111,148 @@
   <si>
     <t>奖励</t>
   </si>
+  <si>
+    <t>清晨</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>御花园</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>亭子里</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>延晖阁</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>狩猎场</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间内</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>赏花</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>赏月</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>赏画</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>骑马</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹琴</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食物金币主位卡临幸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品金币主位卡临幸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衣服金币主位卡临幸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50%概率得20001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50%概率得20002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50%概率得20003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30%概率得20001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30%概率得20002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30%概率得20003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币卡临幸主位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币卡临幸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80%金币临幸20011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50%金币临幸20011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30%金币临幸20011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币主位卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80%金币主位卡20015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50%金币主位卡20015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30%金币主位卡20015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -156,6 +292,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -188,7 +331,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -227,6 +370,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -569,13 +718,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G387"/>
+  <dimension ref="A1:O387"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A126" sqref="A126:A379"/>
+      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -584,9 +733,10 @@
     <col min="2" max="2" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.09765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -605,8 +755,26 @@
       <c r="F1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>22</v>
       </c>
@@ -626,7 +794,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -634,7 +802,7 @@
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>23</v>
       </c>
@@ -654,7 +822,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>1</v>
       </c>
@@ -673,8 +841,26 @@
       <c r="F5">
         <v>20001</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J5" s="5">
+        <v>101</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="16">
+        <v>201</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="16">
+        <v>301</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>2</v>
       </c>
@@ -693,8 +879,26 @@
       <c r="F6">
         <v>20002</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J6" s="5">
+        <v>102</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="16">
+        <v>202</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N6" s="16">
+        <v>302</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>3</v>
       </c>
@@ -713,8 +917,26 @@
       <c r="F7">
         <v>20003</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J7" s="5">
+        <v>103</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="16">
+        <v>203</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" s="16">
+        <v>303</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>4</v>
       </c>
@@ -733,8 +955,26 @@
       <c r="F8">
         <v>20004</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J8" s="5">
+        <v>104</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="16">
+        <v>204</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N8" s="16">
+        <v>304</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>5</v>
       </c>
@@ -753,8 +993,26 @@
       <c r="F9">
         <v>20005</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J9" s="5">
+        <v>105</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" s="16">
+        <v>205</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N9" s="16">
+        <v>305</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>6</v>
       </c>
@@ -774,7 +1032,7 @@
         <v>20006</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>7</v>
       </c>
@@ -794,7 +1052,7 @@
         <v>20007</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>8</v>
       </c>
@@ -813,8 +1071,14 @@
       <c r="F12">
         <v>20008</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J12">
+        <v>20001</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>9</v>
       </c>
@@ -833,8 +1097,14 @@
       <c r="F13">
         <v>20009</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J13">
+        <v>20002</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>10</v>
       </c>
@@ -853,8 +1123,14 @@
       <c r="F14">
         <v>20010</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J14">
+        <v>20003</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>11</v>
       </c>
@@ -873,8 +1149,14 @@
       <c r="F15">
         <v>20011</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J15">
+        <v>20004</v>
+      </c>
+      <c r="K15" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>12</v>
       </c>
@@ -893,8 +1175,14 @@
       <c r="F16">
         <v>20012</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J16">
+        <v>20005</v>
+      </c>
+      <c r="K16" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <v>13</v>
       </c>
@@ -913,8 +1201,14 @@
       <c r="F17">
         <v>20013</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J17">
+        <v>20006</v>
+      </c>
+      <c r="K17" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>14</v>
       </c>
@@ -933,8 +1227,14 @@
       <c r="F18">
         <v>20014</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J18">
+        <v>20007</v>
+      </c>
+      <c r="K18" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <v>15</v>
       </c>
@@ -953,8 +1253,14 @@
       <c r="F19">
         <v>20015</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J19">
+        <v>20008</v>
+      </c>
+      <c r="K19" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
         <v>16</v>
       </c>
@@ -973,8 +1279,14 @@
       <c r="F20">
         <v>20016</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J20">
+        <v>20009</v>
+      </c>
+      <c r="K20" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="9">
         <v>17</v>
       </c>
@@ -993,8 +1305,14 @@
       <c r="F21">
         <v>20017</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J21">
+        <v>20010</v>
+      </c>
+      <c r="K21" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
         <v>18</v>
       </c>
@@ -1013,8 +1331,14 @@
       <c r="F22">
         <v>20018</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J22">
+        <v>20011</v>
+      </c>
+      <c r="K22" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="9">
         <v>19</v>
       </c>
@@ -1033,8 +1357,14 @@
       <c r="F23" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J23">
+        <v>20012</v>
+      </c>
+      <c r="K23" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="9">
         <v>20</v>
       </c>
@@ -1053,8 +1383,14 @@
       <c r="F24">
         <v>20001</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J24">
+        <v>20013</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="9">
         <v>21</v>
       </c>
@@ -1073,8 +1409,14 @@
       <c r="F25">
         <v>20002</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J25">
+        <v>20014</v>
+      </c>
+      <c r="K25" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="9">
         <v>22</v>
       </c>
@@ -1093,8 +1435,14 @@
       <c r="F26">
         <v>20003</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J26">
+        <v>20015</v>
+      </c>
+      <c r="K26" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="9">
         <v>23</v>
       </c>
@@ -1113,8 +1461,14 @@
       <c r="F27">
         <v>20004</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J27">
+        <v>20016</v>
+      </c>
+      <c r="K27" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="9">
         <v>24</v>
       </c>
@@ -1133,8 +1487,14 @@
       <c r="F28">
         <v>20005</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J28">
+        <v>20017</v>
+      </c>
+      <c r="K28" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="9">
         <v>25</v>
       </c>
@@ -1153,8 +1513,14 @@
       <c r="F29">
         <v>20006</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J29">
+        <v>20018</v>
+      </c>
+      <c r="K29" s="15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="9">
         <v>26</v>
       </c>
@@ -1174,7 +1540,7 @@
         <v>20007</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="9">
         <v>27</v>
       </c>
@@ -1194,7 +1560,7 @@
         <v>20008</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="9">
         <v>28</v>
       </c>

--- a/docs/excel/DateReward.xlsx
+++ b/docs/excel/DateReward.xlsx
@@ -721,10 +721,10 @@
   <dimension ref="A1:O387"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomRight" activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1354,8 +1354,8 @@
       <c r="E23">
         <v>304</v>
       </c>
-      <c r="F23" s="13">
-        <v>0</v>
+      <c r="F23">
+        <v>20005</v>
       </c>
       <c r="J23">
         <v>20012</v>
@@ -1485,7 +1485,7 @@
         <v>304</v>
       </c>
       <c r="F28">
-        <v>20005</v>
+        <v>0</v>
       </c>
       <c r="J28">
         <v>20017</v>

--- a/docs/excel/DateReward.xlsx
+++ b/docs/excel/DateReward.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="66">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -176,75 +176,111 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>食物金币主位卡临幸</t>
+    <t>食物主位卡临幸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>物品金币主位卡临幸</t>
+    <t>物品主位卡临幸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>衣服金币主位卡临幸</t>
+    <t>衣服主位卡临幸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>50%概率得20001</t>
+    <t>50%概率得20001或金币</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>50%概率得20002</t>
+    <t>50%概率得20002或金币</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>50%概率得20003</t>
+    <t>50%概率得20003或金币</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>30%概率得20001</t>
+    <t>30%概率得20001或70%金币</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>30%概率得20002</t>
+    <t>30%概率得20002或70%金币</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>30%概率得20003</t>
+    <t>30%概率得20003或70%金币</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>金币卡临幸主位</t>
+    <t>卡临幸主位各50%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>金币卡临幸</t>
+    <t>卡临幸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>80%金币临幸20011</t>
+    <t>80%临幸20%金币</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>50%金币临幸20011</t>
+    <t>50%金币或临幸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>30%金币临幸20011</t>
+    <r>
+      <t>30%临幸70</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>金币</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>金币主位卡</t>
+    <t>主位卡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>80%金币主位卡20015</t>
+    <t>80%主位卡20%金币</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>50%金币主位卡20015</t>
+    <r>
+      <t>50%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主位卡50%金币</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>30%金币主位卡20015</t>
+    <t>30%主位卡70%金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -252,7 +288,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -299,6 +335,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -331,7 +374,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -376,6 +419,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -721,10 +767,10 @@
   <dimension ref="A1:O387"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C353" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H28" sqref="H28"/>
+      <selection pane="bottomRight" activeCell="F365" sqref="F365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1485,12 +1531,12 @@
         <v>304</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>20019</v>
       </c>
       <c r="J28">
         <v>20017</v>
       </c>
-      <c r="K28" s="15" t="s">
+      <c r="K28" s="18" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1539,6 +1585,12 @@
       <c r="F30">
         <v>20007</v>
       </c>
+      <c r="J30">
+        <v>20019</v>
+      </c>
+      <c r="K30" s="15" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="31" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="9">
@@ -1777,7 +1829,7 @@
         <v>303</v>
       </c>
       <c r="F42" s="13">
-        <v>0</v>
+        <v>20019</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -2156,8 +2208,8 @@
       <c r="E61">
         <v>302</v>
       </c>
-      <c r="F61" s="13">
-        <v>0</v>
+      <c r="F61">
+        <v>20019</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -2536,8 +2588,8 @@
       <c r="E80">
         <v>301</v>
       </c>
-      <c r="F80" s="13">
-        <v>0</v>
+      <c r="F80">
+        <v>20019</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -2916,8 +2968,8 @@
       <c r="E99">
         <v>305</v>
       </c>
-      <c r="F99" s="13">
-        <v>0</v>
+      <c r="F99">
+        <v>20019</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -3296,8 +3348,8 @@
       <c r="E118">
         <v>304</v>
       </c>
-      <c r="F118" s="13">
-        <v>0</v>
+      <c r="F118">
+        <v>20019</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -3676,8 +3728,8 @@
       <c r="E137">
         <v>303</v>
       </c>
-      <c r="F137" s="13">
-        <v>0</v>
+      <c r="F137">
+        <v>20019</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4056,8 +4108,8 @@
       <c r="E156">
         <v>302</v>
       </c>
-      <c r="F156" s="13">
-        <v>0</v>
+      <c r="F156">
+        <v>20019</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -4439,8 +4491,8 @@
       <c r="E175">
         <v>301</v>
       </c>
-      <c r="F175" s="13">
-        <v>0</v>
+      <c r="F175">
+        <v>20019</v>
       </c>
       <c r="G175" s="12"/>
     </row>
@@ -4829,8 +4881,8 @@
       <c r="E194">
         <v>305</v>
       </c>
-      <c r="F194" s="13">
-        <v>0</v>
+      <c r="F194">
+        <v>20019</v>
       </c>
     </row>
     <row r="195" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5209,8 +5261,8 @@
       <c r="E213">
         <v>304</v>
       </c>
-      <c r="F213" s="13">
-        <v>0</v>
+      <c r="F213">
+        <v>20019</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5589,8 +5641,8 @@
       <c r="E232">
         <v>303</v>
       </c>
-      <c r="F232" s="13">
-        <v>0</v>
+      <c r="F232">
+        <v>20019</v>
       </c>
     </row>
     <row r="233" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5969,8 +6021,8 @@
       <c r="E251">
         <v>302</v>
       </c>
-      <c r="F251" s="13">
-        <v>0</v>
+      <c r="F251">
+        <v>20019</v>
       </c>
     </row>
     <row r="252" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6349,8 +6401,8 @@
       <c r="E270">
         <v>301</v>
       </c>
-      <c r="F270" s="13">
-        <v>0</v>
+      <c r="F270">
+        <v>20019</v>
       </c>
     </row>
     <row r="271" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6729,8 +6781,8 @@
       <c r="E289">
         <v>305</v>
       </c>
-      <c r="F289" s="13">
-        <v>0</v>
+      <c r="F289">
+        <v>20019</v>
       </c>
     </row>
     <row r="290" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -7109,8 +7161,8 @@
       <c r="E308">
         <v>304</v>
       </c>
-      <c r="F308" s="13">
-        <v>0</v>
+      <c r="F308">
+        <v>20019</v>
       </c>
     </row>
     <row r="309" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -7489,8 +7541,8 @@
       <c r="E327">
         <v>303</v>
       </c>
-      <c r="F327" s="13">
-        <v>0</v>
+      <c r="F327">
+        <v>20019</v>
       </c>
     </row>
     <row r="328" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -7869,8 +7921,8 @@
       <c r="E346">
         <v>302</v>
       </c>
-      <c r="F346" s="13">
-        <v>0</v>
+      <c r="F346">
+        <v>20019</v>
       </c>
     </row>
     <row r="347" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -8249,8 +8301,8 @@
       <c r="E365">
         <v>301</v>
       </c>
-      <c r="F365" s="13">
-        <v>0</v>
+      <c r="F365">
+        <v>20019</v>
       </c>
     </row>
     <row r="366" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
